--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7A092-5109-DC47-B641-A7A0BB49AD27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA100458-EAB9-334B-824B-A1A9F0226A2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="4560" yWindow="460" windowWidth="29040" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
         <v>25278.428571428572</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H89" si="4">H67-C68</f>
+        <f t="shared" ref="H68:H90" si="4">H67-C68</f>
         <v>10784998</v>
       </c>
       <c r="I68" s="2">
@@ -2679,7 +2679,7 @@
         <v>281714</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G89" si="5">AVERAGE(C68:C74)</f>
+        <f t="shared" ref="G74:G90" si="5">AVERAGE(C68:C74)</f>
         <v>33511.285714285717</v>
       </c>
       <c r="H74" s="2">
@@ -3170,6 +3170,38 @@
       <c r="I89" s="2">
         <f>(D89-F89)</f>
         <v>1532219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C90" s="2">
+        <v>77740</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1916332</v>
+      </c>
+      <c r="E90" s="2">
+        <v>616602</v>
+      </c>
+      <c r="F90" s="2">
+        <v>308301</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="5"/>
+        <v>62207.142857142855</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="4"/>
+        <v>9689380</v>
+      </c>
+      <c r="I90" s="2">
+        <f>(D90-F90)</f>
+        <v>1608031</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA100458-EAB9-334B-824B-A1A9F0226A2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB06420A-B839-E640-B2F7-B5D02555EDBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="460" windowWidth="29040" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
         <v>25278.428571428572</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H90" si="4">H67-C68</f>
+        <f t="shared" ref="H68:H91" si="4">H67-C68</f>
         <v>10784998</v>
       </c>
       <c r="I68" s="2">
@@ -2679,7 +2679,7 @@
         <v>281714</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G90" si="5">AVERAGE(C68:C74)</f>
+        <f t="shared" ref="G74:G91" si="5">AVERAGE(C68:C74)</f>
         <v>33511.285714285717</v>
       </c>
       <c r="H74" s="2">
@@ -3202,6 +3202,38 @@
       <c r="I90" s="2">
         <f>(D90-F90)</f>
         <v>1608031</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C91" s="2">
+        <v>64950</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1981282</v>
+      </c>
+      <c r="E91" s="2">
+        <v>618570</v>
+      </c>
+      <c r="F91" s="2">
+        <v>309285</v>
+      </c>
+      <c r="G91" s="2">
+        <f>AVERAGE(C85:C91)</f>
+        <v>65653.857142857145</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="4"/>
+        <v>9624430</v>
+      </c>
+      <c r="I91" s="2">
+        <f>(D91-F91)</f>
+        <v>1671997</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB06420A-B839-E640-B2F7-B5D02555EDBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415E882-7F85-FA43-8614-0C2637634749}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
         <v>25278.428571428572</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H91" si="4">H67-C68</f>
+        <f t="shared" ref="H68:H92" si="4">H67-C68</f>
         <v>10784998</v>
       </c>
       <c r="I68" s="2">
@@ -2679,7 +2679,7 @@
         <v>281714</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ref="G74:G91" si="5">AVERAGE(C68:C74)</f>
+        <f t="shared" ref="G74:G90" si="5">AVERAGE(C68:C74)</f>
         <v>33511.285714285717</v>
       </c>
       <c r="H74" s="2">
@@ -3234,6 +3234,38 @@
       <c r="I91" s="2">
         <f>(D91-F91)</f>
         <v>1671997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C92" s="2">
+        <v>50453</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2031735</v>
+      </c>
+      <c r="E92" s="2">
+        <v>622495</v>
+      </c>
+      <c r="F92" s="2">
+        <v>311248</v>
+      </c>
+      <c r="G92" s="2">
+        <f>AVERAGE(C86:C92)</f>
+        <v>68385</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="4"/>
+        <v>9573977</v>
+      </c>
+      <c r="I92" s="2">
+        <f>(D92-F92)</f>
+        <v>1720487</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415E882-7F85-FA43-8614-0C2637634749}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C049D-A077-744E-8BEB-5DA44BB2A6F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="-33620" yWindow="-100" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
         <v>25278.428571428572</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H92" si="4">H67-C68</f>
+        <f t="shared" ref="H68:H93" si="4">H67-C68</f>
         <v>10784998</v>
       </c>
       <c r="I68" s="2">
@@ -3268,8 +3268,43 @@
         <v>1720487</v>
       </c>
     </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C93" s="2">
+        <v>70645</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2102380</v>
+      </c>
+      <c r="E93" s="2">
+        <v>627778</v>
+      </c>
+      <c r="F93" s="2">
+        <v>313889</v>
+      </c>
+      <c r="G93" s="2">
+        <f>AVERAGE(C87:C93)</f>
+        <v>71240.142857142855</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="4"/>
+        <v>9503332</v>
+      </c>
+      <c r="I93" s="2">
+        <f>(D93-F93)</f>
+        <v>1788491</v>
+      </c>
+    </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F94" s="2"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854C049D-A077-744E-8BEB-5DA44BB2A6F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B495E-3FAD-DF40-8465-6593E155DBA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="-100" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2491,7 @@
         <v>25278.428571428572</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H93" si="4">H67-C68</f>
+        <f t="shared" ref="H68:H94" si="4">H67-C68</f>
         <v>10784998</v>
       </c>
       <c r="I68" s="2">
@@ -3136,7 +3136,7 @@
         <v>9850116</v>
       </c>
       <c r="I88" s="2">
-        <f>(D88-F88)</f>
+        <f t="shared" ref="I88:I94" si="7">(D88-F88)</f>
         <v>1451210</v>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
         <v>9767120</v>
       </c>
       <c r="I89" s="2">
-        <f>(D89-F89)</f>
+        <f t="shared" si="7"/>
         <v>1532219</v>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
         <v>9689380</v>
       </c>
       <c r="I90" s="2">
-        <f>(D90-F90)</f>
+        <f t="shared" si="7"/>
         <v>1608031</v>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
         <v>9624430</v>
       </c>
       <c r="I91" s="2">
-        <f>(D91-F91)</f>
+        <f t="shared" si="7"/>
         <v>1671997</v>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
         <v>9573977</v>
       </c>
       <c r="I92" s="2">
-        <f>(D92-F92)</f>
+        <f t="shared" si="7"/>
         <v>1720487</v>
       </c>
     </row>
@@ -3296,12 +3296,41 @@
         <v>9503332</v>
       </c>
       <c r="I93" s="2">
-        <f>(D93-F93)</f>
+        <f t="shared" si="7"/>
         <v>1788491</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F94" s="2"/>
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44286</v>
+      </c>
+      <c r="C94" s="2">
+        <v>89873</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2192253</v>
+      </c>
+      <c r="E94" s="2">
+        <v>631639</v>
+      </c>
+      <c r="F94" s="2">
+        <v>315820</v>
+      </c>
+      <c r="G94" s="2">
+        <f>AVERAGE(C88:C94)</f>
+        <v>73729</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="4"/>
+        <v>9413459</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="7"/>
+        <v>1876433</v>
+      </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1B495E-3FAD-DF40-8465-6593E155DBA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760CE9A1-27D7-7840-B097-279E6B48D79E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3332,6 +3332,38 @@
         <v>1876433</v>
       </c>
     </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C95" s="2">
+        <v>84060</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2276313</v>
+      </c>
+      <c r="E95" s="2">
+        <v>635430</v>
+      </c>
+      <c r="F95" s="2">
+        <v>317715</v>
+      </c>
+      <c r="G95" s="2">
+        <f>AVERAGE(C89:C95)</f>
+        <v>74388.142857142855</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" ref="H95" si="8">H94-C95</f>
+        <v>9329399</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" ref="I95" si="9">(D95-F95)</f>
+        <v>1958598</v>
+      </c>
+    </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
     </row>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760CE9A1-27D7-7840-B097-279E6B48D79E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADBC59-FDDB-0048-9B81-948DFF26B6B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,8 +3364,69 @@
         <v>1958598</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="2"/>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C96" s="2">
+        <v>88183</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2364496</v>
+      </c>
+      <c r="E96" s="2">
+        <v>640700</v>
+      </c>
+      <c r="F96" s="2">
+        <v>320350</v>
+      </c>
+      <c r="G96" s="2">
+        <f>AVERAGE(C90:C96)</f>
+        <v>75129.142857142855</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" ref="H96" si="10">H95-C96</f>
+        <v>9241216</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" ref="I96" si="11">(D96-F96)</f>
+        <v>2044146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C97" s="2">
+        <v>59567</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2424063</v>
+      </c>
+      <c r="E97" s="2">
+        <v>642937</v>
+      </c>
+      <c r="F97" s="2">
+        <v>321469</v>
+      </c>
+      <c r="G97" s="2">
+        <f>AVERAGE(C91:C97)</f>
+        <v>72533</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" ref="H97" si="12">H96-C97</f>
+        <v>9181649</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" ref="I97" si="13">(D97-F97)</f>
+        <v>2102594</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ADBC59-FDDB-0048-9B81-948DFF26B6B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0672FE-CE00-394C-BBB7-0CC7DCEE1888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3224,7 @@
         <v>309285</v>
       </c>
       <c r="G91" s="2">
-        <f>AVERAGE(C85:C91)</f>
+        <f t="shared" ref="G91:G97" si="8">AVERAGE(C85:C91)</f>
         <v>65653.857142857145</v>
       </c>
       <c r="H91" s="2">
@@ -3256,7 +3256,7 @@
         <v>311248</v>
       </c>
       <c r="G92" s="2">
-        <f>AVERAGE(C86:C92)</f>
+        <f t="shared" si="8"/>
         <v>68385</v>
       </c>
       <c r="H92" s="2">
@@ -3288,7 +3288,7 @@
         <v>313889</v>
       </c>
       <c r="G93" s="2">
-        <f>AVERAGE(C87:C93)</f>
+        <f t="shared" si="8"/>
         <v>71240.142857142855</v>
       </c>
       <c r="H93" s="2">
@@ -3320,7 +3320,7 @@
         <v>315820</v>
       </c>
       <c r="G94" s="2">
-        <f>AVERAGE(C88:C94)</f>
+        <f t="shared" si="8"/>
         <v>73729</v>
       </c>
       <c r="H94" s="2">
@@ -3352,15 +3352,15 @@
         <v>317715</v>
       </c>
       <c r="G95" s="2">
-        <f>AVERAGE(C89:C95)</f>
+        <f t="shared" si="8"/>
         <v>74388.142857142855</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" ref="H95" si="8">H94-C95</f>
+        <f t="shared" ref="H95" si="9">H94-C95</f>
         <v>9329399</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" ref="I95" si="9">(D95-F95)</f>
+        <f t="shared" ref="I95" si="10">(D95-F95)</f>
         <v>1958598</v>
       </c>
     </row>
@@ -3384,15 +3384,15 @@
         <v>320350</v>
       </c>
       <c r="G96" s="2">
-        <f>AVERAGE(C90:C96)</f>
+        <f t="shared" si="8"/>
         <v>75129.142857142855</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" ref="H96" si="10">H95-C96</f>
+        <f t="shared" ref="H96" si="11">H95-C96</f>
         <v>9241216</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" ref="I96" si="11">(D96-F96)</f>
+        <f t="shared" ref="I96" si="12">(D96-F96)</f>
         <v>2044146</v>
       </c>
     </row>
@@ -3416,16 +3416,80 @@
         <v>321469</v>
       </c>
       <c r="G97" s="2">
-        <f>AVERAGE(C91:C97)</f>
+        <f t="shared" si="8"/>
         <v>72533</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" ref="H97" si="12">H96-C97</f>
+        <f t="shared" ref="H97" si="13">H96-C97</f>
         <v>9181649</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" ref="I97" si="13">(D97-F97)</f>
+        <f t="shared" ref="I97" si="14">(D97-F97)</f>
         <v>2102594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C98" s="2">
+        <v>69125</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2493188</v>
+      </c>
+      <c r="E98" s="2">
+        <v>644095</v>
+      </c>
+      <c r="F98" s="2">
+        <v>322048</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" ref="G98:G99" si="15">AVERAGE(C92:C98)</f>
+        <v>73129.428571428565</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" ref="H98:H99" si="16">H97-C98</f>
+        <v>9112524</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" ref="I98:I99" si="17">(D98-F98)</f>
+        <v>2171140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>44291</v>
+      </c>
+      <c r="C99" s="2">
+        <v>52452</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2545640</v>
+      </c>
+      <c r="E99" s="2">
+        <v>644393</v>
+      </c>
+      <c r="F99" s="2">
+        <v>322197</v>
+      </c>
+      <c r="G99" s="2">
+        <f t="shared" si="15"/>
+        <v>73415</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="16"/>
+        <v>9060072</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="17"/>
+        <v>2223443</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0672FE-CE00-394C-BBB7-0CC7DCEE1888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2260CF44-1E92-3649-AE12-3E78E1E60414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3492,6 +3492,38 @@
         <v>2223443</v>
       </c>
     </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C100" s="2">
+        <v>76199</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2621839</v>
+      </c>
+      <c r="E100" s="2">
+        <v>646295</v>
+      </c>
+      <c r="F100" s="2">
+        <v>323148</v>
+      </c>
+      <c r="G100" s="2">
+        <f t="shared" ref="G100" si="18">AVERAGE(C94:C100)</f>
+        <v>74208.428571428565</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" ref="H100" si="19">H99-C100</f>
+        <v>8983873</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" ref="I100" si="20">(D100-F100)</f>
+        <v>2298691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2260CF44-1E92-3649-AE12-3E78E1E60414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D99A34-4E91-A740-BB48-50ED12F6E35F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3512,16 +3512,48 @@
         <v>323148</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" ref="G100" si="18">AVERAGE(C94:C100)</f>
+        <f t="shared" ref="G100:G101" si="18">AVERAGE(C94:C100)</f>
         <v>74208.428571428565</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" ref="H100" si="19">H99-C100</f>
+        <f t="shared" ref="H100:H101" si="19">H99-C100</f>
         <v>8983873</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" ref="I100" si="20">(D100-F100)</f>
+        <f t="shared" ref="I100:I101" si="20">(D100-F100)</f>
         <v>2298691</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>44293</v>
+      </c>
+      <c r="C101" s="2">
+        <v>104382</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2726221</v>
+      </c>
+      <c r="E101" s="2">
+        <v>649566</v>
+      </c>
+      <c r="F101" s="2">
+        <v>324783</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="18"/>
+        <v>76281.142857142855</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="19"/>
+        <v>8879491</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="20"/>
+        <v>2401438</v>
       </c>
     </row>
   </sheetData>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D99A34-4E91-A740-BB48-50ED12F6E35F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE5A7D-51E8-8D47-9A4D-9E2E9B5E0AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3556,6 +3556,38 @@
         <v>2401438</v>
       </c>
     </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44294</v>
+      </c>
+      <c r="C102" s="2">
+        <v>108563</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2834784</v>
+      </c>
+      <c r="E102" s="2">
+        <v>652719</v>
+      </c>
+      <c r="F102" s="2">
+        <v>326360</v>
+      </c>
+      <c r="G102" s="2">
+        <f t="shared" ref="G102" si="21">AVERAGE(C96:C102)</f>
+        <v>79781.571428571435</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" ref="H102" si="22">H101-C102</f>
+        <v>8770928</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" ref="I102" si="23">(D102-F102)</f>
+        <v>2508424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE5A7D-51E8-8D47-9A4D-9E2E9B5E0AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9E65A-743A-FC49-94F7-2B837E32BE3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3588,6 +3588,38 @@
         <v>2508424</v>
       </c>
     </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44295</v>
+      </c>
+      <c r="C103" s="2">
+        <v>105382</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2940166</v>
+      </c>
+      <c r="E103" s="2">
+        <v>657719</v>
+      </c>
+      <c r="F103" s="2">
+        <v>328598</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" ref="G103" si="24">AVERAGE(C97:C103)</f>
+        <v>82238.571428571435</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" ref="H103" si="25">H102-C103</f>
+        <v>8665546</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" ref="I103" si="26">(D103-F103)</f>
+        <v>2611568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D9E65A-743A-FC49-94F7-2B837E32BE3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A41E5-6BC6-EC46-9DA2-6CD77536CF17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3620,6 +3620,38 @@
         <v>2611568</v>
       </c>
     </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C104" s="2">
+        <v>104783</v>
+      </c>
+      <c r="D104" s="2">
+        <v>3044949</v>
+      </c>
+      <c r="E104" s="2">
+        <v>661963</v>
+      </c>
+      <c r="F104" s="2">
+        <v>330982</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" ref="G104" si="27">AVERAGE(C98:C104)</f>
+        <v>88698</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" ref="H104" si="28">H103-C104</f>
+        <v>8560763</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" ref="I104" si="29">(D104-F104)</f>
+        <v>2713967</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A41E5-6BC6-EC46-9DA2-6CD77536CF17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2135D21-2291-3C4B-B31E-5DCD2F36CF56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3652,6 +3652,38 @@
         <v>2713967</v>
       </c>
     </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44297</v>
+      </c>
+      <c r="C105" s="2">
+        <v>94794</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3139743</v>
+      </c>
+      <c r="E105" s="2">
+        <v>666299</v>
+      </c>
+      <c r="F105" s="2">
+        <v>333150</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" ref="G105" si="30">AVERAGE(C99:C105)</f>
+        <v>92365</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" ref="H105" si="31">H104-C105</f>
+        <v>8465969</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" ref="I105" si="32">(D105-F105)</f>
+        <v>2806593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2135D21-2291-3C4B-B31E-5DCD2F36CF56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD4A4B-EEED-264F-BEE5-CAE64D18EFF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3684,6 +3684,38 @@
         <v>2806593</v>
       </c>
     </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44298</v>
+      </c>
+      <c r="C106" s="2">
+        <v>74722</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3214465</v>
+      </c>
+      <c r="E106" s="2">
+        <v>666838</v>
+      </c>
+      <c r="F106" s="2">
+        <v>333419</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" ref="G106" si="33">AVERAGE(C100:C106)</f>
+        <v>95546.428571428565</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" ref="H106" si="34">H105-C106</f>
+        <v>8391247</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" ref="I106" si="35">(D106-F106)</f>
+        <v>2881046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FD4A4B-EEED-264F-BEE5-CAE64D18EFF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FA57E-8FAA-BD4D-9577-1FAA0EE55723}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3716,6 +3716,38 @@
         <v>2881046</v>
       </c>
     </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>44299</v>
+      </c>
+      <c r="C107" s="2">
+        <v>95692</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3310157</v>
+      </c>
+      <c r="E107" s="2">
+        <v>670524</v>
+      </c>
+      <c r="F107" s="2">
+        <v>335262</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" ref="G107" si="36">AVERAGE(C101:C107)</f>
+        <v>98331.142857142855</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" ref="H107" si="37">H106-C107</f>
+        <v>8295555</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" ref="I107" si="38">(D107-F107)</f>
+        <v>2974895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FA57E-8FAA-BD4D-9577-1FAA0EE55723}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55657AFF-5688-A344-9A01-BE68D7956DDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3748,6 +3748,38 @@
         <v>2974895</v>
       </c>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>44300</v>
+      </c>
+      <c r="C108" s="2">
+        <v>112817</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3422974</v>
+      </c>
+      <c r="E108" s="2">
+        <v>674411</v>
+      </c>
+      <c r="F108" s="2">
+        <v>337206</v>
+      </c>
+      <c r="G108" s="2">
+        <f t="shared" ref="G108" si="39">AVERAGE(C102:C108)</f>
+        <v>99536.142857142855</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" ref="H108" si="40">H107-C108</f>
+        <v>8182738</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" ref="I108" si="41">(D108-F108)</f>
+        <v>3085768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55657AFF-5688-A344-9A01-BE68D7956DDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C7E59-3790-064B-B8F4-2B3EA58770BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3780,6 +3780,47 @@
         <v>3085768</v>
       </c>
     </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>44301</v>
+      </c>
+      <c r="C109" s="2">
+        <v>105430</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3528404</v>
+      </c>
+      <c r="E109" s="2">
+        <v>678981</v>
+      </c>
+      <c r="F109" s="2">
+        <v>339491</v>
+      </c>
+      <c r="G109" s="2">
+        <f>AVERAGE(C103:C109)</f>
+        <v>99088.571428571435</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" ref="H109:H110" si="42">H108-C109</f>
+        <v>8077308</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" ref="I109:I110" si="43">(D109-F109)</f>
+        <v>3188913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C7E59-3790-064B-B8F4-2B3EA58770BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1209EF-9D4A-5846-B2A0-8C6E4C8475B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3804,22 +3804,45 @@
         <v>99088.571428571435</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" ref="H109:H110" si="42">H108-C109</f>
+        <f t="shared" ref="H109" si="42">H108-C109</f>
         <v>8077308</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" ref="I109:I110" si="43">(D109-F109)</f>
+        <f t="shared" ref="I109" si="43">(D109-F109)</f>
         <v>3188913</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>44302</v>
+      </c>
+      <c r="C110" s="2">
+        <v>115634</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3644038</v>
+      </c>
+      <c r="E110" s="2">
+        <v>683866</v>
+      </c>
+      <c r="F110" s="2">
+        <v>341933</v>
+      </c>
+      <c r="G110" s="2">
+        <f>AVERAGE(C104:C110)</f>
+        <v>100553.14285714286</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" ref="H110" si="44">H109-C110</f>
+        <v>7961674</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" ref="I110" si="45">(D110-F110)</f>
+        <v>3302105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1209EF-9D4A-5846-B2A0-8C6E4C8475B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFA1FB-F772-BE48-9925-92CC03AFB744}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>Total Doses Administered</t>
   </si>
   <si>
-    <t>Population left (one dose)</t>
+    <t>persons with &gt;1 dose</t>
   </si>
   <si>
-    <t>persons with &gt;1 dose</t>
+    <t>Total First Doses</t>
   </si>
 </sst>
 </file>
@@ -411,23 +411,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -469,9 +469,11 @@
       <c r="D2" s="2">
         <v>10756</v>
       </c>
-      <c r="H2" s="2">
-        <v>11592236</v>
-      </c>
+      <c r="E2" s="2">
+        <f>(D2-F2)</f>
+        <v>10756</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -487,10 +489,11 @@
       <c r="D3" s="2">
         <v>18603</v>
       </c>
-      <c r="H3" s="2">
-        <f>H2-C3</f>
-        <v>11587641</v>
-      </c>
+      <c r="E3" s="2">
+        <f>(D3-F3)</f>
+        <v>18603</v>
+      </c>
+      <c r="G3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -506,9 +509,9 @@
       <c r="D4" s="2">
         <v>23502</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H67" si="0">H3-C4</f>
-        <v>11582178</v>
+      <c r="E4" s="2">
+        <f>(D4-F4)</f>
+        <v>23502</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -525,9 +528,9 @@
       <c r="D5" s="2">
         <v>28887</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>11576763</v>
+      <c r="E5" s="2">
+        <f>(D5-F5)</f>
+        <v>28887</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -544,9 +547,9 @@
       <c r="D6" s="2">
         <v>33191</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>11572458</v>
+      <c r="E6" s="2">
+        <f>(D6-F6)</f>
+        <v>33191</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -563,9 +566,9 @@
       <c r="D7" s="2">
         <v>37551</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>11568097</v>
+      <c r="E7" s="2">
+        <f>(D7-F7)</f>
+        <v>37551</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -582,9 +585,9 @@
       <c r="D8" s="2">
         <v>42419</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>11563289</v>
+      <c r="E8" s="2">
+        <f>(D8-F8)</f>
+        <v>42419</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -601,13 +604,13 @@
       <c r="D9" s="2">
         <v>50030</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="2">
+        <f>(D9-F9)</f>
+        <v>50030</v>
+      </c>
+      <c r="H9" s="2">
         <f>AVERAGE(C3:C9)</f>
         <v>5222</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>11555682</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -624,22 +627,22 @@
       <c r="D10" s="2">
         <v>60380</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
+        <f>(D10-F10)</f>
+        <v>59520</v>
+      </c>
+      <c r="F10">
         <v>860</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>430</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" ref="G10:G73" si="1">AVERAGE(C4:C10)</f>
+      <c r="H10" s="2">
+        <f>AVERAGE(C4:C10)</f>
         <v>6044.1428571428569</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>11545332</v>
-      </c>
       <c r="I10" s="2">
-        <f t="shared" ref="I10:I65" si="2">(D10-F10)</f>
+        <f>(D10-G10)</f>
         <v>59950</v>
       </c>
     </row>
@@ -657,21 +660,21 @@
         <v>72631</v>
       </c>
       <c r="E11" s="2">
+        <f>(D11-F11)</f>
+        <v>70458</v>
+      </c>
+      <c r="F11" s="2">
         <v>2173</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>1087</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
+      <c r="H11" s="2">
+        <f>AVERAGE(C5:C11)</f>
         <v>7013.8571428571431</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>11533081</v>
-      </c>
       <c r="I11" s="2">
-        <f t="shared" si="2"/>
+        <f>(D11-G11)</f>
         <v>71544</v>
       </c>
     </row>
@@ -689,21 +692,21 @@
         <v>87563</v>
       </c>
       <c r="E12" s="2">
+        <f>(D12-F12)</f>
+        <v>83510</v>
+      </c>
+      <c r="F12" s="2">
         <v>4053</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>2027</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
+      <c r="H12" s="2">
+        <f>AVERAGE(C6:C12)</f>
         <v>8373.4285714285706</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>11518149</v>
-      </c>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
+        <f>(D12-G12)</f>
         <v>85536</v>
       </c>
     </row>
@@ -721,21 +724,21 @@
         <v>103263</v>
       </c>
       <c r="E13" s="2">
+        <f>(D13-F13)</f>
+        <v>97383</v>
+      </c>
+      <c r="F13" s="2">
         <v>5880</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2940</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
+      <c r="H13" s="2">
+        <f>AVERAGE(C7:C13)</f>
         <v>10001.285714285714</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>11502449</v>
-      </c>
       <c r="I13" s="2">
-        <f t="shared" si="2"/>
+        <f>(D13-G13)</f>
         <v>100323</v>
       </c>
     </row>
@@ -753,21 +756,21 @@
         <v>113246</v>
       </c>
       <c r="E14" s="2">
+        <f>(D14-F14)</f>
+        <v>107362</v>
+      </c>
+      <c r="F14" s="2">
         <v>5884</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>2942</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="1"/>
+      <c r="H14" s="2">
+        <f>AVERAGE(C8:C14)</f>
         <v>10804.428571428571</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>11492466</v>
-      </c>
       <c r="I14" s="2">
-        <f t="shared" si="2"/>
+        <f>(D14-G14)</f>
         <v>110304</v>
       </c>
     </row>
@@ -785,21 +788,21 @@
         <v>122105</v>
       </c>
       <c r="E15" s="2">
+        <f>(D15-F15)</f>
+        <v>116221</v>
+      </c>
+      <c r="F15" s="2">
         <v>5884</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2942</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
+      <c r="H15" s="2">
+        <f>AVERAGE(C9:C15)</f>
         <v>11383.142857142857</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>11483607</v>
-      </c>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
+        <f>(D15-G15)</f>
         <v>119163</v>
       </c>
     </row>
@@ -817,21 +820,21 @@
         <v>133553</v>
       </c>
       <c r="E16" s="2">
+        <f>(D16-F16)</f>
+        <v>127507</v>
+      </c>
+      <c r="F16" s="2">
         <v>6046</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>3023</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
+      <c r="H16" s="2">
+        <f>AVERAGE(C10:C16)</f>
         <v>11931.857142857143</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>11472159</v>
-      </c>
       <c r="I16" s="2">
-        <f t="shared" si="2"/>
+        <f>(D16-G16)</f>
         <v>130530</v>
       </c>
     </row>
@@ -849,21 +852,21 @@
         <v>144784</v>
       </c>
       <c r="E17" s="2">
+        <f>(D17-F17)</f>
+        <v>136006</v>
+      </c>
+      <c r="F17" s="2">
         <v>8778</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>4389</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
+      <c r="H17" s="2">
+        <f>AVERAGE(C11:C17)</f>
         <v>12057.714285714286</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>11460928</v>
-      </c>
       <c r="I17" s="2">
-        <f t="shared" si="2"/>
+        <f>(D17-G17)</f>
         <v>140395</v>
       </c>
     </row>
@@ -881,21 +884,21 @@
         <v>159021</v>
       </c>
       <c r="E18" s="2">
+        <f>(D18-F18)</f>
+        <v>145728</v>
+      </c>
+      <c r="F18" s="2">
         <v>13293</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>6647</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
+      <c r="H18" s="2">
+        <f>AVERAGE(C12:C18)</f>
         <v>12341.428571428571</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>11446691</v>
-      </c>
       <c r="I18" s="2">
-        <f t="shared" si="2"/>
+        <f>(D18-G18)</f>
         <v>152374</v>
       </c>
     </row>
@@ -913,21 +916,21 @@
         <v>174630</v>
       </c>
       <c r="E19" s="2">
+        <f>(D19-F19)</f>
+        <v>157536</v>
+      </c>
+      <c r="F19" s="2">
         <v>17094</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>8547</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="1"/>
+      <c r="H19" s="2">
+        <f>AVERAGE(C13:C19)</f>
         <v>12438.142857142857</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>11431082</v>
-      </c>
       <c r="I19" s="2">
-        <f t="shared" si="2"/>
+        <f>(D19-G19)</f>
         <v>166083</v>
       </c>
     </row>
@@ -945,21 +948,21 @@
         <v>189090</v>
       </c>
       <c r="E20" s="2">
+        <f>(D20-F20)</f>
+        <v>169757</v>
+      </c>
+      <c r="F20" s="2">
         <v>19333</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>9667</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="1"/>
+      <c r="H20" s="2">
+        <f>AVERAGE(C14:C20)</f>
         <v>12261</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>11416622</v>
-      </c>
       <c r="I20" s="2">
-        <f t="shared" si="2"/>
+        <f>(D20-G20)</f>
         <v>179423</v>
       </c>
     </row>
@@ -977,21 +980,21 @@
         <v>200097</v>
       </c>
       <c r="E21" s="2">
+        <f>(D21-F21)</f>
+        <v>178383</v>
+      </c>
+      <c r="F21" s="2">
         <v>21714</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>10857</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="1"/>
+      <c r="H21" s="2">
+        <f>AVERAGE(C15:C21)</f>
         <v>12407.285714285714</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>11405615</v>
-      </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
+        <f>(D21-G21)</f>
         <v>189240</v>
       </c>
     </row>
@@ -1009,21 +1012,21 @@
         <v>209788</v>
       </c>
       <c r="E22" s="2">
+        <f>(D22-F22)</f>
+        <v>188036</v>
+      </c>
+      <c r="F22" s="2">
         <v>21752</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>10876</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
+      <c r="H22" s="2">
+        <f>AVERAGE(C16:C22)</f>
         <v>12526.142857142857</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>11395924</v>
-      </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
+        <f>(D22-G22)</f>
         <v>198912</v>
       </c>
     </row>
@@ -1041,21 +1044,21 @@
         <v>224134</v>
       </c>
       <c r="E23" s="2">
+        <f>(D23-F23)</f>
+        <v>198525</v>
+      </c>
+      <c r="F23" s="2">
         <v>25609</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>12805</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
+      <c r="H23" s="2">
+        <f>AVERAGE(C17:C23)</f>
         <v>12940.142857142857</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>11381578</v>
-      </c>
       <c r="I23" s="2">
-        <f t="shared" si="2"/>
+        <f>(D23-G23)</f>
         <v>211329</v>
       </c>
     </row>
@@ -1073,21 +1076,21 @@
         <v>237918</v>
       </c>
       <c r="E24" s="2">
+        <f>(D24-F24)</f>
+        <v>205557</v>
+      </c>
+      <c r="F24" s="2">
         <v>32361</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>16181</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="1"/>
+      <c r="H24" s="2">
+        <f>AVERAGE(C18:C24)</f>
         <v>13304.857142857143</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>11367794</v>
-      </c>
       <c r="I24" s="2">
-        <f t="shared" si="2"/>
+        <f>(D24-G24)</f>
         <v>221737</v>
       </c>
     </row>
@@ -1105,21 +1108,21 @@
         <v>253817</v>
       </c>
       <c r="E25" s="2">
+        <f>(D25-F25)</f>
+        <v>213592</v>
+      </c>
+      <c r="F25" s="2">
         <v>40225</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>20113</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="1"/>
+      <c r="H25" s="2">
+        <f>AVERAGE(C19:C25)</f>
         <v>13542.285714285714</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>11351895</v>
-      </c>
       <c r="I25" s="2">
-        <f t="shared" si="2"/>
+        <f>(D25-G25)</f>
         <v>233704</v>
       </c>
     </row>
@@ -1137,21 +1140,21 @@
         <v>264985</v>
       </c>
       <c r="E26" s="2">
+        <f>(D26-F26)</f>
+        <v>215693</v>
+      </c>
+      <c r="F26" s="2">
         <v>49292</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>24646</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
+      <c r="H26" s="2">
+        <f>AVERAGE(C20:C26)</f>
         <v>12907.857142857143</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>11340727</v>
-      </c>
       <c r="I26" s="2">
-        <f t="shared" si="2"/>
+        <f>(D26-G26)</f>
         <v>240339</v>
       </c>
     </row>
@@ -1169,21 +1172,21 @@
         <v>276146</v>
       </c>
       <c r="E27" s="2">
+        <f>(D27-F27)</f>
+        <v>218239</v>
+      </c>
+      <c r="F27" s="2">
         <v>57907</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>28954</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="1"/>
+      <c r="H27" s="2">
+        <f>AVERAGE(C21:C27)</f>
         <v>12436.571428571429</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>11329566</v>
-      </c>
       <c r="I27" s="2">
-        <f t="shared" si="2"/>
+        <f>(D27-G27)</f>
         <v>247192</v>
       </c>
     </row>
@@ -1201,21 +1204,21 @@
         <v>280573</v>
       </c>
       <c r="E28" s="2">
+        <f>(D28-F28)</f>
+        <v>217692</v>
+      </c>
+      <c r="F28" s="2">
         <v>62881</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>31441</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
+      <c r="H28" s="2">
+        <f>AVERAGE(C22:C28)</f>
         <v>11496.571428571429</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>11325139</v>
-      </c>
       <c r="I28" s="2">
-        <f t="shared" si="2"/>
+        <f>(D28-G28)</f>
         <v>249132</v>
       </c>
     </row>
@@ -1233,21 +1236,21 @@
         <v>286110</v>
       </c>
       <c r="E29" s="2">
+        <f>(D29-F29)</f>
+        <v>214854</v>
+      </c>
+      <c r="F29" s="2">
         <v>71256</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>35628</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="1"/>
+      <c r="H29" s="2">
+        <f>AVERAGE(C23:C29)</f>
         <v>10903.142857142857</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>11319602</v>
-      </c>
       <c r="I29" s="2">
-        <f t="shared" si="2"/>
+        <f>(D29-G29)</f>
         <v>250482</v>
       </c>
     </row>
@@ -1265,21 +1268,21 @@
         <v>295817</v>
       </c>
       <c r="E30" s="2">
+        <f>(D30-F30)</f>
+        <v>212532</v>
+      </c>
+      <c r="F30" s="2">
         <v>83285</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>41643</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="1"/>
+      <c r="H30" s="2">
+        <f>AVERAGE(C24:C30)</f>
         <v>10240.428571428571</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>11309895</v>
-      </c>
       <c r="I30" s="2">
-        <f t="shared" si="2"/>
+        <f>(D30-G30)</f>
         <v>254174</v>
       </c>
     </row>
@@ -1297,21 +1300,21 @@
         <v>305330</v>
       </c>
       <c r="E31" s="2">
+        <f>(D31-F31)</f>
+        <v>208871</v>
+      </c>
+      <c r="F31" s="2">
         <v>96459</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>48230</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="1"/>
+      <c r="H31" s="2">
+        <f>AVERAGE(C25:C31)</f>
         <v>9630.2857142857138</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="0"/>
-        <v>11300382</v>
-      </c>
       <c r="I31" s="2">
-        <f t="shared" si="2"/>
+        <f>(D31-G31)</f>
         <v>257100</v>
       </c>
     </row>
@@ -1329,21 +1332,21 @@
         <v>317240</v>
       </c>
       <c r="E32" s="2">
+        <f>(D32-F32)</f>
+        <v>206669</v>
+      </c>
+      <c r="F32" s="2">
         <v>110571</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>55286</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="1"/>
+      <c r="H32" s="2">
+        <f>AVERAGE(C26:C32)</f>
         <v>9060.4285714285706</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="0"/>
-        <v>11288472</v>
-      </c>
       <c r="I32" s="2">
-        <f t="shared" si="2"/>
+        <f>(D32-G32)</f>
         <v>261954</v>
       </c>
     </row>
@@ -1361,21 +1364,21 @@
         <v>327455</v>
       </c>
       <c r="E33" s="2">
+        <f>(D33-F33)</f>
+        <v>204098</v>
+      </c>
+      <c r="F33" s="2">
         <v>123357</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>61679</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="1"/>
+      <c r="H33" s="2">
+        <f>AVERAGE(C27:C33)</f>
         <v>8924.2857142857138</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="0"/>
-        <v>11278257</v>
-      </c>
       <c r="I33" s="2">
-        <f t="shared" si="2"/>
+        <f>(D33-G33)</f>
         <v>265776</v>
       </c>
     </row>
@@ -1393,21 +1396,21 @@
         <v>336828</v>
       </c>
       <c r="E34" s="2">
+        <f>(D34-F34)</f>
+        <v>201254</v>
+      </c>
+      <c r="F34" s="2">
         <v>135574</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>67787</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="1"/>
+      <c r="H34" s="2">
+        <f>AVERAGE(C28:C34)</f>
         <v>8668.8571428571431</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="0"/>
-        <v>11268884</v>
-      </c>
       <c r="I34" s="2">
-        <f t="shared" si="2"/>
+        <f>(D34-G34)</f>
         <v>269041</v>
       </c>
     </row>
@@ -1425,21 +1428,21 @@
         <v>339644</v>
       </c>
       <c r="E35" s="2">
+        <f>(D35-F35)</f>
+        <v>201946</v>
+      </c>
+      <c r="F35" s="2">
         <v>137698</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>68849</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="1"/>
+      <c r="H35" s="2">
+        <f>AVERAGE(C29:C35)</f>
         <v>8438.7142857142862</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="0"/>
-        <v>11266068</v>
-      </c>
       <c r="I35" s="2">
-        <f t="shared" si="2"/>
+        <f>(D35-G35)</f>
         <v>270795</v>
       </c>
     </row>
@@ -1457,21 +1460,21 @@
         <v>341900</v>
       </c>
       <c r="E36" s="2">
+        <f>(D36-F36)</f>
+        <v>201315</v>
+      </c>
+      <c r="F36" s="2">
         <v>140585</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>70293</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="1"/>
+      <c r="H36" s="2">
+        <f>AVERAGE(C30:C36)</f>
         <v>7970</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="0"/>
-        <v>11263812</v>
-      </c>
       <c r="I36" s="2">
-        <f t="shared" si="2"/>
+        <f>(D36-G36)</f>
         <v>271607</v>
       </c>
     </row>
@@ -1489,21 +1492,21 @@
         <v>344615</v>
       </c>
       <c r="E37" s="2">
+        <f>(D37-F37)</f>
+        <v>200502</v>
+      </c>
+      <c r="F37" s="2">
         <v>144113</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>72057</v>
       </c>
-      <c r="G37" s="2">
-        <f t="shared" si="1"/>
+      <c r="H37" s="2">
+        <f>AVERAGE(C31:C37)</f>
         <v>6971.1428571428569</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="0"/>
-        <v>11261097</v>
-      </c>
       <c r="I37" s="2">
-        <f t="shared" si="2"/>
+        <f>(D37-G37)</f>
         <v>272558</v>
       </c>
     </row>
@@ -1521,21 +1524,21 @@
         <v>348331</v>
       </c>
       <c r="E38" s="2">
+        <f>(D38-F38)</f>
+        <v>198344</v>
+      </c>
+      <c r="F38" s="2">
         <v>149987</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>74994</v>
       </c>
-      <c r="G38" s="2">
-        <f t="shared" si="1"/>
+      <c r="H38" s="2">
+        <f>AVERAGE(C32:C38)</f>
         <v>6143</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="0"/>
-        <v>11257381</v>
-      </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
+        <f>(D38-G38)</f>
         <v>273337</v>
       </c>
     </row>
@@ -1553,21 +1556,21 @@
         <v>355055</v>
       </c>
       <c r="E39" s="2">
+        <f>(D39-F39)</f>
+        <v>193101</v>
+      </c>
+      <c r="F39" s="2">
         <v>161954</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>80977</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" si="1"/>
+      <c r="H39" s="2">
+        <f>AVERAGE(C33:C39)</f>
         <v>5402.1428571428569</v>
       </c>
-      <c r="H39" s="2">
-        <f t="shared" si="0"/>
-        <v>11250657</v>
-      </c>
       <c r="I39" s="2">
-        <f t="shared" si="2"/>
+        <f>(D39-G39)</f>
         <v>274078</v>
       </c>
     </row>
@@ -1585,21 +1588,21 @@
         <v>362749</v>
       </c>
       <c r="E40" s="2">
+        <f>(D40-F40)</f>
+        <v>187087</v>
+      </c>
+      <c r="F40" s="2">
         <v>175662</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>87831</v>
       </c>
-      <c r="G40" s="2">
-        <f t="shared" si="1"/>
+      <c r="H40" s="2">
+        <f>AVERAGE(C34:C40)</f>
         <v>5042</v>
       </c>
-      <c r="H40" s="2">
-        <f t="shared" si="0"/>
-        <v>11242963</v>
-      </c>
       <c r="I40" s="2">
-        <f t="shared" si="2"/>
+        <f>(D40-G40)</f>
         <v>274918</v>
       </c>
     </row>
@@ -1617,21 +1620,21 @@
         <v>372666</v>
       </c>
       <c r="E41" s="2">
+        <f>(D41-F41)</f>
+        <v>179520</v>
+      </c>
+      <c r="F41" s="2">
         <v>193146</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>96573</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="1"/>
+      <c r="H41" s="2">
+        <f>AVERAGE(C35:C41)</f>
         <v>5119.7142857142853</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="0"/>
-        <v>11233046</v>
-      </c>
       <c r="I41" s="2">
-        <f t="shared" si="2"/>
+        <f>(D41-G41)</f>
         <v>276093</v>
       </c>
     </row>
@@ -1649,21 +1652,21 @@
         <v>379184</v>
       </c>
       <c r="E42" s="2">
+        <f>(D42-F42)</f>
+        <v>175697</v>
+      </c>
+      <c r="F42" s="2">
         <v>203487</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>101744</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="1"/>
+      <c r="H42" s="2">
+        <f>AVERAGE(C36:C42)</f>
         <v>5648.5714285714284</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="0"/>
-        <v>11226528</v>
-      </c>
       <c r="I42" s="2">
-        <f t="shared" si="2"/>
+        <f>(D42-G42)</f>
         <v>277440</v>
       </c>
     </row>
@@ -1681,21 +1684,21 @@
         <v>386171</v>
       </c>
       <c r="E43" s="2">
+        <f>(D43-F43)</f>
+        <v>173845</v>
+      </c>
+      <c r="F43" s="2">
         <v>212326</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>106163</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="1"/>
+      <c r="H43" s="2">
+        <f>AVERAGE(C37:C43)</f>
         <v>6324.4285714285716</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="0"/>
-        <v>11219541</v>
-      </c>
       <c r="I43" s="2">
-        <f t="shared" si="2"/>
+        <f>(D43-G43)</f>
         <v>280008</v>
       </c>
     </row>
@@ -1713,21 +1716,21 @@
         <v>398633</v>
       </c>
       <c r="E44" s="2">
+        <f>(D44-F44)</f>
+        <v>167575</v>
+      </c>
+      <c r="F44" s="2">
         <v>231058</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>115529</v>
       </c>
-      <c r="G44" s="2">
-        <f t="shared" si="1"/>
+      <c r="H44" s="2">
+        <f>AVERAGE(C38:C44)</f>
         <v>7716.8571428571431</v>
       </c>
-      <c r="H44" s="2">
-        <f t="shared" si="0"/>
-        <v>11207079</v>
-      </c>
       <c r="I44" s="2">
-        <f t="shared" si="2"/>
+        <f>(D44-G44)</f>
         <v>283104</v>
       </c>
     </row>
@@ -1745,21 +1748,21 @@
         <v>412119</v>
       </c>
       <c r="E45" s="2">
+        <f>(D45-F45)</f>
+        <v>160670</v>
+      </c>
+      <c r="F45" s="2">
         <v>251449</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>125725</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="1"/>
+      <c r="H45" s="2">
+        <f>AVERAGE(C39:C45)</f>
         <v>9112.5714285714294</v>
       </c>
-      <c r="H45" s="2">
-        <f t="shared" si="0"/>
-        <v>11193593</v>
-      </c>
       <c r="I45" s="2">
-        <f t="shared" si="2"/>
+        <f>(D45-G45)</f>
         <v>286394</v>
       </c>
     </row>
@@ -1777,21 +1780,21 @@
         <v>426836</v>
       </c>
       <c r="E46" s="2">
+        <f>(D46-F46)</f>
+        <v>152861</v>
+      </c>
+      <c r="F46" s="2">
         <v>273975</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>136988</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="1"/>
+      <c r="H46" s="2">
+        <f>AVERAGE(C40:C46)</f>
         <v>10254.428571428571</v>
       </c>
-      <c r="H46" s="2">
-        <f t="shared" si="0"/>
-        <v>11178876</v>
-      </c>
       <c r="I46" s="2">
-        <f t="shared" si="2"/>
+        <f>(D46-G46)</f>
         <v>289848</v>
       </c>
     </row>
@@ -1809,21 +1812,21 @@
         <v>442441</v>
       </c>
       <c r="E47" s="2">
+        <f>(D47-F47)</f>
+        <v>139878</v>
+      </c>
+      <c r="F47" s="2">
         <v>302563</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <v>151282</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="1"/>
+      <c r="H47" s="2">
+        <f>AVERAGE(C41:C47)</f>
         <v>11384.571428571429</v>
       </c>
-      <c r="H47" s="2">
-        <f t="shared" si="0"/>
-        <v>11163271</v>
-      </c>
       <c r="I47" s="2">
-        <f t="shared" si="2"/>
+        <f>(D47-G47)</f>
         <v>291159</v>
       </c>
     </row>
@@ -1841,21 +1844,21 @@
         <v>456947</v>
       </c>
       <c r="E48" s="2">
+        <f>(D48-F48)</f>
+        <v>128333</v>
+      </c>
+      <c r="F48" s="2">
         <v>328614</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>164307</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="1"/>
+      <c r="H48" s="2">
+        <f>AVERAGE(C42:C48)</f>
         <v>12040.142857142857</v>
       </c>
-      <c r="H48" s="2">
-        <f t="shared" si="0"/>
-        <v>11148765</v>
-      </c>
       <c r="I48" s="2">
-        <f t="shared" si="2"/>
+        <f>(D48-G48)</f>
         <v>292640</v>
       </c>
     </row>
@@ -1873,21 +1876,21 @@
         <v>467626</v>
       </c>
       <c r="E49" s="2">
+        <f>(D49-F49)</f>
+        <v>118340</v>
+      </c>
+      <c r="F49" s="2">
         <v>349286</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>174643</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="1"/>
+      <c r="H49" s="2">
+        <f>AVERAGE(C43:C49)</f>
         <v>12634.571428571429</v>
       </c>
-      <c r="H49" s="2">
-        <f t="shared" si="0"/>
-        <v>11138086</v>
-      </c>
       <c r="I49" s="2">
-        <f t="shared" si="2"/>
+        <f>(D49-G49)</f>
         <v>292983</v>
       </c>
     </row>
@@ -1905,21 +1908,21 @@
         <v>475324</v>
       </c>
       <c r="E50" s="2">
+        <f>(D50-F50)</f>
+        <v>111050</v>
+      </c>
+      <c r="F50" s="2">
         <v>364274</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>182137</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="1"/>
+      <c r="H50" s="2">
+        <f>AVERAGE(C44:C50)</f>
         <v>12736.142857142857</v>
       </c>
-      <c r="H50" s="2">
-        <f t="shared" si="0"/>
-        <v>11130388</v>
-      </c>
       <c r="I50" s="2">
-        <f t="shared" si="2"/>
+        <f>(D50-G50)</f>
         <v>293187</v>
       </c>
     </row>
@@ -1937,21 +1940,21 @@
         <v>480377</v>
       </c>
       <c r="E51" s="2">
+        <f>(D51-F51)</f>
+        <v>106510</v>
+      </c>
+      <c r="F51" s="2">
         <v>373867</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>186934</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="1"/>
+      <c r="H51" s="2">
+        <f>AVERAGE(C45:C51)</f>
         <v>11677.714285714286</v>
       </c>
-      <c r="H51" s="2">
-        <f t="shared" si="0"/>
-        <v>11125335</v>
-      </c>
       <c r="I51" s="2">
-        <f t="shared" si="2"/>
+        <f>(D51-G51)</f>
         <v>293443</v>
       </c>
     </row>
@@ -1969,21 +1972,21 @@
         <v>489484</v>
       </c>
       <c r="E52" s="2">
+        <f>(D52-F52)</f>
+        <v>98753</v>
+      </c>
+      <c r="F52" s="2">
         <v>390731</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>195366</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="1"/>
+      <c r="H52" s="2">
+        <f>AVERAGE(C46:C52)</f>
         <v>11052.142857142857</v>
       </c>
-      <c r="H52" s="2">
-        <f t="shared" si="0"/>
-        <v>11116228</v>
-      </c>
       <c r="I52" s="2">
-        <f t="shared" si="2"/>
+        <f>(D52-G52)</f>
         <v>294118</v>
       </c>
     </row>
@@ -2001,21 +2004,21 @@
         <v>501867</v>
       </c>
       <c r="E53" s="2">
+        <f>(D53-F53)</f>
+        <v>90263</v>
+      </c>
+      <c r="F53" s="2">
         <v>411604</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>205802</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="1"/>
+      <c r="H53" s="2">
+        <f>AVERAGE(C47:C53)</f>
         <v>10718.714285714286</v>
       </c>
-      <c r="H53" s="2">
-        <f t="shared" si="0"/>
-        <v>11103845</v>
-      </c>
       <c r="I53" s="2">
-        <f t="shared" si="2"/>
+        <f>(D53-G53)</f>
         <v>296065</v>
       </c>
     </row>
@@ -2033,21 +2036,21 @@
         <v>518834</v>
       </c>
       <c r="E54" s="2">
+        <f>(D54-F54)</f>
+        <v>83405</v>
+      </c>
+      <c r="F54" s="2">
         <v>435429</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>217715</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="1"/>
+      <c r="H54" s="2">
+        <f>AVERAGE(C48:C54)</f>
         <v>10913.285714285714</v>
       </c>
-      <c r="H54" s="2">
-        <f t="shared" si="0"/>
-        <v>11086878</v>
-      </c>
       <c r="I54" s="2">
-        <f t="shared" si="2"/>
+        <f>(D54-G54)</f>
         <v>301119</v>
       </c>
     </row>
@@ -2065,21 +2068,21 @@
         <v>540129</v>
       </c>
       <c r="E55" s="2">
+        <f>(D55-F55)</f>
+        <v>81828</v>
+      </c>
+      <c r="F55" s="2">
         <v>458301</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>229151</v>
       </c>
-      <c r="G55" s="2">
-        <f t="shared" si="1"/>
+      <c r="H55" s="2">
+        <f>AVERAGE(C49:C55)</f>
         <v>11883.142857142857</v>
       </c>
-      <c r="H55" s="2">
-        <f t="shared" si="0"/>
-        <v>11065583</v>
-      </c>
       <c r="I55" s="2">
-        <f t="shared" si="2"/>
+        <f>(D55-G55)</f>
         <v>310978</v>
       </c>
     </row>
@@ -2097,21 +2100,21 @@
         <v>556533</v>
       </c>
       <c r="E56" s="2">
+        <f>(D56-F56)</f>
+        <v>84690</v>
+      </c>
+      <c r="F56" s="2">
         <v>471843</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>235922</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="1"/>
+      <c r="H56" s="2">
+        <f>AVERAGE(C50:C56)</f>
         <v>12701</v>
       </c>
-      <c r="H56" s="2">
-        <f t="shared" si="0"/>
-        <v>11049179</v>
-      </c>
       <c r="I56" s="2">
-        <f t="shared" si="2"/>
+        <f>(D56-G56)</f>
         <v>320611</v>
       </c>
     </row>
@@ -2129,21 +2132,21 @@
         <v>569455</v>
       </c>
       <c r="E57" s="2">
+        <f>(D57-F57)</f>
+        <v>88118</v>
+      </c>
+      <c r="F57" s="2">
         <v>481337</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>240669</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" si="1"/>
+      <c r="H57" s="2">
+        <f>AVERAGE(C51:C57)</f>
         <v>13447.285714285714</v>
       </c>
-      <c r="H57" s="2">
-        <f t="shared" si="0"/>
-        <v>11036257</v>
-      </c>
       <c r="I57" s="2">
-        <f t="shared" si="2"/>
+        <f>(D57-G57)</f>
         <v>328786</v>
       </c>
     </row>
@@ -2161,21 +2164,21 @@
         <v>585707</v>
       </c>
       <c r="E58" s="2">
+        <f>(D58-F58)</f>
+        <v>91624</v>
+      </c>
+      <c r="F58" s="2">
         <v>494083</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G58" s="2">
         <v>247042</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="1"/>
+      <c r="H58" s="2">
+        <f>AVERAGE(C52:C58)</f>
         <v>15047.142857142857</v>
       </c>
-      <c r="H58" s="2">
-        <f t="shared" si="0"/>
-        <v>11020005</v>
-      </c>
       <c r="I58" s="2">
-        <f t="shared" si="2"/>
+        <f>(D58-G58)</f>
         <v>338665</v>
       </c>
     </row>
@@ -2193,21 +2196,21 @@
         <v>602848</v>
       </c>
       <c r="E59" s="2">
+        <f>(D59-F59)</f>
+        <v>99668</v>
+      </c>
+      <c r="F59" s="2">
         <v>503180</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G59" s="2">
         <v>251590</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="1"/>
+      <c r="H59" s="2">
+        <f>AVERAGE(C53:C59)</f>
         <v>16194.857142857143</v>
       </c>
-      <c r="H59" s="2">
-        <f t="shared" si="0"/>
-        <v>11002864</v>
-      </c>
       <c r="I59" s="2">
-        <f t="shared" si="2"/>
+        <f>(D59-G59)</f>
         <v>351258</v>
       </c>
     </row>
@@ -2225,21 +2228,21 @@
         <v>621960</v>
       </c>
       <c r="E60" s="2">
+        <f>(D60-F60)</f>
+        <v>111063</v>
+      </c>
+      <c r="F60" s="2">
         <v>510897</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G60" s="2">
         <v>255449</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="1"/>
+      <c r="H60" s="2">
+        <f>AVERAGE(C54:C60)</f>
         <v>17156.142857142859</v>
       </c>
-      <c r="H60" s="2">
-        <f t="shared" si="0"/>
-        <v>10983752</v>
-      </c>
       <c r="I60" s="2">
-        <f t="shared" si="2"/>
+        <f>(D60-G60)</f>
         <v>366511</v>
       </c>
     </row>
@@ -2257,21 +2260,21 @@
         <v>643765</v>
       </c>
       <c r="E61" s="2">
+        <f>(D61-F61)</f>
+        <v>127737</v>
+      </c>
+      <c r="F61" s="2">
         <v>516028</v>
       </c>
-      <c r="F61" s="2">
+      <c r="G61" s="2">
         <v>258014</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="1"/>
+      <c r="H61" s="2">
+        <f>AVERAGE(C55:C61)</f>
         <v>17847.285714285714</v>
       </c>
-      <c r="H61" s="2">
-        <f t="shared" si="0"/>
-        <v>10961947</v>
-      </c>
       <c r="I61" s="2">
-        <f t="shared" si="2"/>
+        <f>(D61-G61)</f>
         <v>385751</v>
       </c>
     </row>
@@ -2289,21 +2292,21 @@
         <v>668104</v>
       </c>
       <c r="E62" s="2">
+        <f>(D62-F62)</f>
+        <v>146161</v>
+      </c>
+      <c r="F62" s="2">
         <v>521943</v>
       </c>
-      <c r="F62" s="2">
+      <c r="G62" s="2">
         <v>260972</v>
       </c>
-      <c r="G62" s="2">
-        <f t="shared" si="1"/>
+      <c r="H62" s="2">
+        <f>AVERAGE(C56:C62)</f>
         <v>18282.142857142859</v>
       </c>
-      <c r="H62" s="2">
-        <f t="shared" si="0"/>
-        <v>10937608</v>
-      </c>
       <c r="I62" s="2">
-        <f t="shared" si="2"/>
+        <f>(D62-G62)</f>
         <v>407132</v>
       </c>
     </row>
@@ -2321,21 +2324,21 @@
         <v>687271</v>
       </c>
       <c r="E63" s="2">
+        <f>(D63-F63)</f>
+        <v>163066</v>
+      </c>
+      <c r="F63" s="2">
         <v>524205</v>
       </c>
-      <c r="F63" s="2">
+      <c r="G63" s="2">
         <v>262103</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="1"/>
+      <c r="H63" s="2">
+        <f>AVERAGE(C57:C63)</f>
         <v>18676.857142857141</v>
       </c>
-      <c r="H63" s="2">
-        <f t="shared" si="0"/>
-        <v>10918441</v>
-      </c>
       <c r="I63" s="2">
-        <f t="shared" si="2"/>
+        <f>(D63-G63)</f>
         <v>425168</v>
       </c>
     </row>
@@ -2353,21 +2356,21 @@
         <v>704695</v>
       </c>
       <c r="E64" s="2">
+        <f>(D64-F64)</f>
+        <v>178268</v>
+      </c>
+      <c r="F64" s="2">
         <v>526427</v>
       </c>
-      <c r="F64" s="2">
+      <c r="G64" s="2">
         <v>263214</v>
       </c>
-      <c r="G64" s="2">
-        <f t="shared" si="1"/>
+      <c r="H64" s="2">
+        <f>AVERAGE(C58:C64)</f>
         <v>19320</v>
       </c>
-      <c r="H64" s="2">
-        <f t="shared" si="0"/>
-        <v>10901017</v>
-      </c>
       <c r="I64" s="2">
-        <f t="shared" si="2"/>
+        <f>(D64-G64)</f>
         <v>441481</v>
       </c>
     </row>
@@ -2385,21 +2388,21 @@
         <v>727021</v>
       </c>
       <c r="E65" s="2">
+        <f>(D65-F65)</f>
+        <v>197229</v>
+      </c>
+      <c r="F65" s="2">
         <v>529792</v>
       </c>
-      <c r="F65" s="2">
+      <c r="G65" s="2">
         <v>264896</v>
       </c>
-      <c r="G65" s="2">
-        <f t="shared" si="1"/>
+      <c r="H65" s="2">
+        <f>AVERAGE(C59:C65)</f>
         <v>20187.714285714286</v>
       </c>
-      <c r="H65" s="2">
-        <f t="shared" si="0"/>
-        <v>10878691</v>
-      </c>
       <c r="I65" s="2">
-        <f t="shared" si="2"/>
+        <f>(D65-G65)</f>
         <v>462125</v>
       </c>
     </row>
@@ -2417,21 +2420,21 @@
         <v>754419</v>
       </c>
       <c r="E66" s="2">
+        <f>(D66-F66)</f>
+        <v>220999</v>
+      </c>
+      <c r="F66" s="2">
         <v>533420</v>
       </c>
-      <c r="F66" s="2">
+      <c r="G66" s="2">
         <v>266710</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="1"/>
+      <c r="H66" s="2">
+        <f>AVERAGE(C60:C66)</f>
         <v>21653</v>
       </c>
-      <c r="H66" s="2">
-        <f t="shared" si="0"/>
-        <v>10851293</v>
-      </c>
       <c r="I66" s="2">
-        <f t="shared" ref="I66:I78" si="3">(D66-F66)</f>
+        <f>(D66-G66)</f>
         <v>487709</v>
       </c>
     </row>
@@ -2449,21 +2452,21 @@
         <v>784828</v>
       </c>
       <c r="E67" s="2">
+        <f>(D67-F67)</f>
+        <v>248593</v>
+      </c>
+      <c r="F67" s="2">
         <v>536235</v>
       </c>
-      <c r="F67" s="2">
+      <c r="G67" s="2">
         <v>268118</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" si="1"/>
+      <c r="H67" s="2">
+        <f>AVERAGE(C61:C67)</f>
         <v>23266.857142857141</v>
       </c>
-      <c r="H67" s="2">
-        <f t="shared" si="0"/>
-        <v>10820884</v>
-      </c>
       <c r="I67" s="2">
-        <f t="shared" si="3"/>
+        <f>(D67-G67)</f>
         <v>516710</v>
       </c>
     </row>
@@ -2481,21 +2484,21 @@
         <v>820714</v>
       </c>
       <c r="E68" s="2">
+        <f>(D68-F68)</f>
+        <v>282588</v>
+      </c>
+      <c r="F68" s="2">
         <v>538126</v>
       </c>
-      <c r="F68" s="2">
+      <c r="G68" s="2">
         <v>269063</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="1"/>
+      <c r="H68" s="2">
+        <f>AVERAGE(C62:C68)</f>
         <v>25278.428571428572</v>
       </c>
-      <c r="H68" s="2">
-        <f t="shared" ref="H68:H94" si="4">H67-C68</f>
-        <v>10784998</v>
-      </c>
       <c r="I68" s="2">
-        <f t="shared" si="3"/>
+        <f>(D68-G68)</f>
         <v>551651</v>
       </c>
     </row>
@@ -2513,21 +2516,21 @@
         <v>860412</v>
       </c>
       <c r="E69" s="2">
+        <f>(D69-F69)</f>
+        <v>319162</v>
+      </c>
+      <c r="F69" s="2">
         <v>541250</v>
       </c>
-      <c r="F69" s="2">
+      <c r="G69" s="2">
         <v>270625</v>
       </c>
-      <c r="G69" s="2">
-        <f t="shared" si="1"/>
+      <c r="H69" s="2">
+        <f>AVERAGE(C63:C69)</f>
         <v>27472.571428571428</v>
       </c>
-      <c r="H69" s="2">
-        <f t="shared" si="4"/>
-        <v>10745300</v>
-      </c>
       <c r="I69" s="2">
-        <f t="shared" si="3"/>
+        <f>(D69-G69)</f>
         <v>589787</v>
       </c>
     </row>
@@ -2545,21 +2548,21 @@
         <v>890604</v>
       </c>
       <c r="E70" s="2">
+        <f>(D70-F70)</f>
+        <v>346990</v>
+      </c>
+      <c r="F70" s="2">
         <v>543614</v>
       </c>
-      <c r="F70" s="2">
+      <c r="G70" s="2">
         <v>271807</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="1"/>
+      <c r="H70" s="2">
+        <f>AVERAGE(C64:C70)</f>
         <v>29047.571428571428</v>
       </c>
-      <c r="H70" s="2">
-        <f t="shared" si="4"/>
-        <v>10715108</v>
-      </c>
       <c r="I70" s="2">
-        <f t="shared" si="3"/>
+        <f>(D70-G70)</f>
         <v>618797</v>
       </c>
     </row>
@@ -2577,21 +2580,21 @@
         <v>912486</v>
       </c>
       <c r="E71" s="2">
+        <f>(D71-F71)</f>
+        <v>365134</v>
+      </c>
+      <c r="F71" s="2">
         <v>547352</v>
       </c>
-      <c r="F71" s="2">
+      <c r="G71" s="2">
         <v>273676</v>
       </c>
-      <c r="G71" s="2">
-        <f t="shared" si="1"/>
+      <c r="H71" s="2">
+        <f>AVERAGE(C65:C71)</f>
         <v>29684.428571428572</v>
       </c>
-      <c r="H71" s="2">
-        <f t="shared" si="4"/>
-        <v>10693226</v>
-      </c>
       <c r="I71" s="2">
-        <f t="shared" si="3"/>
+        <f>(D71-G71)</f>
         <v>638810</v>
       </c>
     </row>
@@ -2609,21 +2612,21 @@
         <v>943533</v>
       </c>
       <c r="E72" s="2">
+        <f>(D72-F72)</f>
+        <v>391148</v>
+      </c>
+      <c r="F72" s="2">
         <v>552385</v>
       </c>
-      <c r="F72" s="2">
+      <c r="G72" s="2">
         <v>276193</v>
       </c>
-      <c r="G72" s="2">
-        <f t="shared" si="1"/>
+      <c r="H72" s="2">
+        <f>AVERAGE(C66:C72)</f>
         <v>30930.285714285714</v>
       </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>10662179</v>
-      </c>
       <c r="I72" s="2">
-        <f t="shared" si="3"/>
+        <f>(D72-G72)</f>
         <v>667340</v>
       </c>
     </row>
@@ -2641,21 +2644,21 @@
         <v>978797</v>
       </c>
       <c r="E73" s="2">
+        <f>(D73-F73)</f>
+        <v>420390</v>
+      </c>
+      <c r="F73" s="2">
         <v>558407</v>
       </c>
-      <c r="F73" s="2">
+      <c r="G73" s="2">
         <v>279204</v>
       </c>
-      <c r="G73" s="2">
-        <f t="shared" si="1"/>
+      <c r="H73" s="2">
+        <f>AVERAGE(C67:C73)</f>
         <v>32054</v>
       </c>
-      <c r="H73" s="2">
-        <f t="shared" si="4"/>
-        <v>10626915</v>
-      </c>
       <c r="I73" s="2">
-        <f t="shared" si="3"/>
+        <f>(D73-G73)</f>
         <v>699593</v>
       </c>
     </row>
@@ -2673,21 +2676,21 @@
         <v>1019407</v>
       </c>
       <c r="E74" s="2">
+        <f>(D74-F74)</f>
+        <v>455979</v>
+      </c>
+      <c r="F74" s="2">
         <v>563428</v>
       </c>
-      <c r="F74" s="2">
+      <c r="G74" s="2">
         <v>281714</v>
       </c>
-      <c r="G74" s="2">
-        <f t="shared" ref="G74:G90" si="5">AVERAGE(C68:C74)</f>
+      <c r="H74" s="2">
+        <f>AVERAGE(C68:C74)</f>
         <v>33511.285714285717</v>
       </c>
-      <c r="H74" s="2">
-        <f t="shared" si="4"/>
-        <v>10586305</v>
-      </c>
       <c r="I74" s="2">
-        <f t="shared" si="3"/>
+        <f>(D74-G74)</f>
         <v>737693</v>
       </c>
     </row>
@@ -2705,21 +2708,21 @@
         <v>1062910</v>
       </c>
       <c r="E75" s="2">
+        <f>(D75-F75)</f>
+        <v>497415</v>
+      </c>
+      <c r="F75" s="2">
         <v>565495</v>
       </c>
-      <c r="F75" s="2">
+      <c r="G75" s="2">
         <v>282748</v>
       </c>
-      <c r="G75" s="2">
-        <f t="shared" si="5"/>
+      <c r="H75" s="2">
+        <f>AVERAGE(C69:C75)</f>
         <v>34599.428571428572</v>
       </c>
-      <c r="H75" s="2">
-        <f t="shared" si="4"/>
-        <v>10542802</v>
-      </c>
       <c r="I75" s="2">
-        <f t="shared" si="3"/>
+        <f>(D75-G75)</f>
         <v>780162</v>
       </c>
     </row>
@@ -2737,21 +2740,21 @@
         <v>1116496</v>
       </c>
       <c r="E76" s="2">
+        <f>(D76-F76)</f>
+        <v>547125</v>
+      </c>
+      <c r="F76" s="2">
         <v>569371</v>
       </c>
-      <c r="F76" s="2">
+      <c r="G76" s="2">
         <v>284686</v>
       </c>
-      <c r="G76" s="2">
-        <f t="shared" si="5"/>
+      <c r="H76" s="2">
+        <f>AVERAGE(C70:C76)</f>
         <v>36583.428571428572</v>
       </c>
-      <c r="H76" s="2">
-        <f t="shared" si="4"/>
-        <v>10489216</v>
-      </c>
       <c r="I76" s="2">
-        <f t="shared" si="3"/>
+        <f>(D76-G76)</f>
         <v>831810</v>
       </c>
     </row>
@@ -2769,21 +2772,21 @@
         <v>1158355</v>
       </c>
       <c r="E77" s="2">
+        <f>(D77-F77)</f>
+        <v>587126</v>
+      </c>
+      <c r="F77" s="2">
         <v>571229</v>
       </c>
-      <c r="F77" s="2">
+      <c r="G77" s="2">
         <v>285615</v>
       </c>
-      <c r="G77" s="2">
-        <f t="shared" si="5"/>
+      <c r="H77" s="2">
+        <f>AVERAGE(C71:C77)</f>
         <v>38250.142857142855</v>
       </c>
-      <c r="H77" s="2">
-        <f t="shared" si="4"/>
-        <v>10447357</v>
-      </c>
       <c r="I77" s="2">
-        <f t="shared" si="3"/>
+        <f>(D77-G77)</f>
         <v>872740</v>
       </c>
     </row>
@@ -2801,21 +2804,21 @@
         <v>1191553</v>
       </c>
       <c r="E78" s="2">
+        <f>(D78-F78)</f>
+        <v>616987</v>
+      </c>
+      <c r="F78" s="2">
         <v>574566</v>
       </c>
-      <c r="F78" s="2">
+      <c r="G78" s="2">
         <v>287283</v>
       </c>
-      <c r="G78" s="2">
-        <f t="shared" si="5"/>
+      <c r="H78" s="2">
+        <f>AVERAGE(C72:C78)</f>
         <v>39866.714285714283</v>
       </c>
-      <c r="H78" s="2">
-        <f t="shared" si="4"/>
-        <v>10414159</v>
-      </c>
       <c r="I78" s="2">
-        <f t="shared" si="3"/>
+        <f>(D78-G78)</f>
         <v>904270</v>
       </c>
     </row>
@@ -2833,21 +2836,21 @@
         <v>1243132</v>
       </c>
       <c r="E79" s="2">
+        <f>(D79-F79)</f>
+        <v>665296</v>
+      </c>
+      <c r="F79" s="2">
         <v>577836</v>
       </c>
-      <c r="F79" s="2">
+      <c r="G79" s="2">
         <v>288918</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="5"/>
+      <c r="H79" s="2">
+        <f>AVERAGE(C73:C79)</f>
         <v>42799.857142857145</v>
       </c>
-      <c r="H79" s="2">
-        <f t="shared" si="4"/>
-        <v>10362580</v>
-      </c>
       <c r="I79" s="2">
-        <f t="shared" ref="I79:I87" si="6">(D79-F79)</f>
+        <f>(D79-G79)</f>
         <v>954214</v>
       </c>
     </row>
@@ -2865,21 +2868,21 @@
         <v>1301334</v>
       </c>
       <c r="E80" s="2">
+        <f>(D80-F80)</f>
+        <v>720016</v>
+      </c>
+      <c r="F80" s="2">
         <v>581318</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>290659</v>
       </c>
-      <c r="G80" s="2">
-        <f t="shared" si="5"/>
+      <c r="H80" s="2">
+        <f>AVERAGE(C74:C80)</f>
         <v>46076.714285714283</v>
       </c>
-      <c r="H80" s="2">
-        <f t="shared" si="4"/>
-        <v>10304378</v>
-      </c>
       <c r="I80" s="2">
-        <f t="shared" si="6"/>
+        <f>(D80-G80)</f>
         <v>1010675</v>
       </c>
     </row>
@@ -2897,21 +2900,21 @@
         <v>1359453</v>
       </c>
       <c r="E81" s="2">
+        <f>(D81-F81)</f>
+        <v>774916</v>
+      </c>
+      <c r="F81" s="2">
         <v>584537</v>
       </c>
-      <c r="F81" s="2">
+      <c r="G81" s="2">
         <v>292269</v>
       </c>
-      <c r="G81" s="2">
-        <f t="shared" si="5"/>
+      <c r="H81" s="2">
+        <f>AVERAGE(C75:C81)</f>
         <v>48578</v>
       </c>
-      <c r="H81" s="2">
-        <f t="shared" si="4"/>
-        <v>10246259</v>
-      </c>
       <c r="I81" s="2">
-        <f t="shared" si="6"/>
+        <f>(D81-G81)</f>
         <v>1067184</v>
       </c>
     </row>
@@ -2929,21 +2932,21 @@
         <v>1420599</v>
       </c>
       <c r="E82" s="2">
+        <f>(D82-F82)</f>
+        <v>831101</v>
+      </c>
+      <c r="F82" s="2">
         <v>589498</v>
       </c>
-      <c r="F82" s="2">
+      <c r="G82" s="2">
         <v>294749</v>
       </c>
-      <c r="G82" s="2">
-        <f t="shared" si="5"/>
+      <c r="H82" s="2">
+        <f>AVERAGE(C76:C82)</f>
         <v>51098.428571428572</v>
       </c>
-      <c r="H82" s="2">
-        <f t="shared" si="4"/>
-        <v>10185113</v>
-      </c>
       <c r="I82" s="2">
-        <f t="shared" si="6"/>
+        <f>(D82-G82)</f>
         <v>1125850</v>
       </c>
     </row>
@@ -2961,21 +2964,21 @@
         <v>1480882</v>
       </c>
       <c r="E83" s="2">
+        <f>(D83-F83)</f>
+        <v>886615</v>
+      </c>
+      <c r="F83" s="2">
         <v>594267</v>
       </c>
-      <c r="F83" s="2">
+      <c r="G83" s="2">
         <v>297134</v>
       </c>
-      <c r="G83" s="2">
-        <f t="shared" si="5"/>
+      <c r="H83" s="2">
+        <f>AVERAGE(C77:C83)</f>
         <v>52055.142857142855</v>
       </c>
-      <c r="H83" s="2">
-        <f t="shared" si="4"/>
-        <v>10124830</v>
-      </c>
       <c r="I83" s="2">
-        <f t="shared" si="6"/>
+        <f>(D83-G83)</f>
         <v>1183748</v>
       </c>
     </row>
@@ -2993,21 +2996,21 @@
         <v>1521705</v>
       </c>
       <c r="E84" s="2">
+        <f>(D84-F84)</f>
+        <v>924607</v>
+      </c>
+      <c r="F84" s="2">
         <v>597098</v>
       </c>
-      <c r="F84" s="2">
+      <c r="G84" s="2">
         <v>298549</v>
       </c>
-      <c r="G84" s="2">
-        <f t="shared" si="5"/>
+      <c r="H84" s="2">
+        <f>AVERAGE(C78:C84)</f>
         <v>51907.142857142855</v>
       </c>
-      <c r="H84" s="2">
-        <f t="shared" si="4"/>
-        <v>10084007</v>
-      </c>
       <c r="I84" s="2">
-        <f t="shared" si="6"/>
+        <f>(D84-G84)</f>
         <v>1223156</v>
       </c>
       <c r="J84" s="2"/>
@@ -3026,21 +3029,21 @@
         <v>1553040</v>
       </c>
       <c r="E85" s="2">
+        <f>(D85-F85)</f>
+        <v>954446</v>
+      </c>
+      <c r="F85" s="2">
         <v>598594</v>
       </c>
-      <c r="F85" s="2">
+      <c r="G85" s="2">
         <v>299297</v>
       </c>
-      <c r="G85" s="2">
-        <f t="shared" si="5"/>
+      <c r="H85" s="2">
+        <f>AVERAGE(C79:C85)</f>
         <v>51641</v>
       </c>
-      <c r="H85" s="2">
-        <f t="shared" si="4"/>
-        <v>10052672</v>
-      </c>
       <c r="I85" s="2">
-        <f t="shared" si="6"/>
+        <f>(D85-G85)</f>
         <v>1253743</v>
       </c>
     </row>
@@ -3058,21 +3061,21 @@
         <v>1603699</v>
       </c>
       <c r="E86" s="2">
+        <f>(D86-F86)</f>
+        <v>1001613</v>
+      </c>
+      <c r="F86" s="2">
         <v>602086</v>
       </c>
-      <c r="F86" s="2">
+      <c r="G86" s="2">
         <v>301043</v>
       </c>
-      <c r="G86" s="2">
-        <f t="shared" si="5"/>
+      <c r="H86" s="2">
+        <f>AVERAGE(C80:C86)</f>
         <v>51509.571428571428</v>
       </c>
-      <c r="H86" s="2">
-        <f t="shared" si="4"/>
-        <v>10002013</v>
-      </c>
       <c r="I86" s="2">
-        <f t="shared" si="6"/>
+        <f>(D86-G86)</f>
         <v>1302656</v>
       </c>
     </row>
@@ -3090,21 +3093,21 @@
         <v>1676150</v>
       </c>
       <c r="E87" s="2">
+        <f>(D87-F87)</f>
+        <v>1070822</v>
+      </c>
+      <c r="F87" s="2">
         <v>605328</v>
       </c>
-      <c r="F87" s="2">
+      <c r="G87" s="2">
         <v>302664</v>
       </c>
-      <c r="G87" s="2">
-        <f t="shared" si="5"/>
+      <c r="H87" s="2">
+        <f>AVERAGE(C81:C87)</f>
         <v>53545.142857142855</v>
       </c>
-      <c r="H87" s="2">
-        <f t="shared" si="4"/>
-        <v>9929562</v>
-      </c>
       <c r="I87" s="2">
-        <f t="shared" si="6"/>
+        <f>(D87-G87)</f>
         <v>1373486</v>
       </c>
     </row>
@@ -3122,21 +3125,21 @@
         <v>1755596</v>
       </c>
       <c r="E88" s="2">
+        <f>(D88-F88)</f>
+        <v>1146825</v>
+      </c>
+      <c r="F88" s="2">
         <v>608771</v>
       </c>
-      <c r="F88" s="2">
+      <c r="G88" s="2">
         <v>304386</v>
       </c>
-      <c r="G88" s="2">
-        <f t="shared" si="5"/>
+      <c r="H88" s="2">
+        <f>AVERAGE(C82:C88)</f>
         <v>56591.857142857145</v>
       </c>
-      <c r="H88" s="2">
-        <f t="shared" si="4"/>
-        <v>9850116</v>
-      </c>
       <c r="I88" s="2">
-        <f t="shared" ref="I88:I94" si="7">(D88-F88)</f>
+        <f>(D88-G88)</f>
         <v>1451210</v>
       </c>
     </row>
@@ -3154,21 +3157,21 @@
         <v>1838592</v>
       </c>
       <c r="E89" s="2">
+        <f>(D89-F89)</f>
+        <v>1225846</v>
+      </c>
+      <c r="F89" s="2">
         <v>612746</v>
       </c>
-      <c r="F89" s="2">
+      <c r="G89" s="2">
         <v>306373</v>
       </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
+      <c r="H89" s="2">
+        <f>AVERAGE(C83:C89)</f>
         <v>59713.285714285717</v>
       </c>
-      <c r="H89" s="2">
-        <f t="shared" si="4"/>
-        <v>9767120</v>
-      </c>
       <c r="I89" s="2">
-        <f t="shared" si="7"/>
+        <f>(D89-G89)</f>
         <v>1532219</v>
       </c>
     </row>
@@ -3186,21 +3189,21 @@
         <v>1916332</v>
       </c>
       <c r="E90" s="2">
+        <f>(D90-F90)</f>
+        <v>1299730</v>
+      </c>
+      <c r="F90" s="2">
         <v>616602</v>
       </c>
-      <c r="F90" s="2">
+      <c r="G90" s="2">
         <v>308301</v>
       </c>
-      <c r="G90" s="2">
-        <f t="shared" si="5"/>
+      <c r="H90" s="2">
+        <f>AVERAGE(C84:C90)</f>
         <v>62207.142857142855</v>
       </c>
-      <c r="H90" s="2">
-        <f t="shared" si="4"/>
-        <v>9689380</v>
-      </c>
       <c r="I90" s="2">
-        <f t="shared" si="7"/>
+        <f>(D90-G90)</f>
         <v>1608031</v>
       </c>
     </row>
@@ -3218,21 +3221,21 @@
         <v>1981282</v>
       </c>
       <c r="E91" s="2">
+        <f>(D91-F91)</f>
+        <v>1362712</v>
+      </c>
+      <c r="F91" s="2">
         <v>618570</v>
       </c>
-      <c r="F91" s="2">
+      <c r="G91" s="2">
         <v>309285</v>
       </c>
-      <c r="G91" s="2">
-        <f t="shared" ref="G91:G97" si="8">AVERAGE(C85:C91)</f>
+      <c r="H91" s="2">
+        <f>AVERAGE(C85:C91)</f>
         <v>65653.857142857145</v>
       </c>
-      <c r="H91" s="2">
-        <f t="shared" si="4"/>
-        <v>9624430</v>
-      </c>
       <c r="I91" s="2">
-        <f t="shared" si="7"/>
+        <f>(D91-G91)</f>
         <v>1671997</v>
       </c>
     </row>
@@ -3250,21 +3253,21 @@
         <v>2031735</v>
       </c>
       <c r="E92" s="2">
+        <f>(D92-F92)</f>
+        <v>1409240</v>
+      </c>
+      <c r="F92" s="2">
         <v>622495</v>
       </c>
-      <c r="F92" s="2">
+      <c r="G92" s="2">
         <v>311248</v>
       </c>
-      <c r="G92" s="2">
-        <f t="shared" si="8"/>
+      <c r="H92" s="2">
+        <f>AVERAGE(C86:C92)</f>
         <v>68385</v>
       </c>
-      <c r="H92" s="2">
-        <f t="shared" si="4"/>
-        <v>9573977</v>
-      </c>
       <c r="I92" s="2">
-        <f t="shared" si="7"/>
+        <f>(D92-G92)</f>
         <v>1720487</v>
       </c>
     </row>
@@ -3282,21 +3285,21 @@
         <v>2102380</v>
       </c>
       <c r="E93" s="2">
+        <f>(D93-F93)</f>
+        <v>1474602</v>
+      </c>
+      <c r="F93" s="2">
         <v>627778</v>
       </c>
-      <c r="F93" s="2">
+      <c r="G93" s="2">
         <v>313889</v>
       </c>
-      <c r="G93" s="2">
-        <f t="shared" si="8"/>
+      <c r="H93" s="2">
+        <f>AVERAGE(C87:C93)</f>
         <v>71240.142857142855</v>
       </c>
-      <c r="H93" s="2">
-        <f t="shared" si="4"/>
-        <v>9503332</v>
-      </c>
       <c r="I93" s="2">
-        <f t="shared" si="7"/>
+        <f>(D93-G93)</f>
         <v>1788491</v>
       </c>
     </row>
@@ -3314,21 +3317,21 @@
         <v>2192253</v>
       </c>
       <c r="E94" s="2">
+        <f>(D94-F94)</f>
+        <v>1560614</v>
+      </c>
+      <c r="F94" s="2">
         <v>631639</v>
       </c>
-      <c r="F94" s="2">
+      <c r="G94" s="2">
         <v>315820</v>
       </c>
-      <c r="G94" s="2">
-        <f t="shared" si="8"/>
+      <c r="H94" s="2">
+        <f>AVERAGE(C88:C94)</f>
         <v>73729</v>
       </c>
-      <c r="H94" s="2">
-        <f t="shared" si="4"/>
-        <v>9413459</v>
-      </c>
       <c r="I94" s="2">
-        <f t="shared" si="7"/>
+        <f>(D94-G94)</f>
         <v>1876433</v>
       </c>
     </row>
@@ -3346,21 +3349,21 @@
         <v>2276313</v>
       </c>
       <c r="E95" s="2">
+        <f>(D95-F95)</f>
+        <v>1640883</v>
+      </c>
+      <c r="F95" s="2">
         <v>635430</v>
       </c>
-      <c r="F95" s="2">
+      <c r="G95" s="2">
         <v>317715</v>
       </c>
-      <c r="G95" s="2">
-        <f t="shared" si="8"/>
+      <c r="H95" s="2">
+        <f>AVERAGE(C89:C95)</f>
         <v>74388.142857142855</v>
       </c>
-      <c r="H95" s="2">
-        <f t="shared" ref="H95" si="9">H94-C95</f>
-        <v>9329399</v>
-      </c>
       <c r="I95" s="2">
-        <f t="shared" ref="I95" si="10">(D95-F95)</f>
+        <f>(D95-G95)</f>
         <v>1958598</v>
       </c>
     </row>
@@ -3378,21 +3381,21 @@
         <v>2364496</v>
       </c>
       <c r="E96" s="2">
+        <f>(D96-F96)</f>
+        <v>1723796</v>
+      </c>
+      <c r="F96" s="2">
         <v>640700</v>
       </c>
-      <c r="F96" s="2">
+      <c r="G96" s="2">
         <v>320350</v>
       </c>
-      <c r="G96" s="2">
-        <f t="shared" si="8"/>
+      <c r="H96" s="2">
+        <f>AVERAGE(C90:C96)</f>
         <v>75129.142857142855</v>
       </c>
-      <c r="H96" s="2">
-        <f t="shared" ref="H96" si="11">H95-C96</f>
-        <v>9241216</v>
-      </c>
       <c r="I96" s="2">
-        <f t="shared" ref="I96" si="12">(D96-F96)</f>
+        <f>(D96-G96)</f>
         <v>2044146</v>
       </c>
     </row>
@@ -3410,21 +3413,21 @@
         <v>2424063</v>
       </c>
       <c r="E97" s="2">
+        <f>(D97-F97)</f>
+        <v>1781126</v>
+      </c>
+      <c r="F97" s="2">
         <v>642937</v>
       </c>
-      <c r="F97" s="2">
+      <c r="G97" s="2">
         <v>321469</v>
       </c>
-      <c r="G97" s="2">
-        <f t="shared" si="8"/>
+      <c r="H97" s="2">
+        <f>AVERAGE(C91:C97)</f>
         <v>72533</v>
       </c>
-      <c r="H97" s="2">
-        <f t="shared" ref="H97" si="13">H96-C97</f>
-        <v>9181649</v>
-      </c>
       <c r="I97" s="2">
-        <f t="shared" ref="I97" si="14">(D97-F97)</f>
+        <f>(D97-G97)</f>
         <v>2102594</v>
       </c>
     </row>
@@ -3442,21 +3445,21 @@
         <v>2493188</v>
       </c>
       <c r="E98" s="2">
+        <f>(D98-F98)</f>
+        <v>1849093</v>
+      </c>
+      <c r="F98" s="2">
         <v>644095</v>
       </c>
-      <c r="F98" s="2">
+      <c r="G98" s="2">
         <v>322048</v>
       </c>
-      <c r="G98" s="2">
-        <f t="shared" ref="G98:G99" si="15">AVERAGE(C92:C98)</f>
+      <c r="H98" s="2">
+        <f>AVERAGE(C92:C98)</f>
         <v>73129.428571428565</v>
       </c>
-      <c r="H98" s="2">
-        <f t="shared" ref="H98:H99" si="16">H97-C98</f>
-        <v>9112524</v>
-      </c>
       <c r="I98" s="2">
-        <f t="shared" ref="I98:I99" si="17">(D98-F98)</f>
+        <f>(D98-G98)</f>
         <v>2171140</v>
       </c>
     </row>
@@ -3474,21 +3477,21 @@
         <v>2545640</v>
       </c>
       <c r="E99" s="2">
+        <f>(D99-F99)</f>
+        <v>1901247</v>
+      </c>
+      <c r="F99" s="2">
         <v>644393</v>
       </c>
-      <c r="F99" s="2">
+      <c r="G99" s="2">
         <v>322197</v>
       </c>
-      <c r="G99" s="2">
-        <f t="shared" si="15"/>
+      <c r="H99" s="2">
+        <f>AVERAGE(C93:C99)</f>
         <v>73415</v>
       </c>
-      <c r="H99" s="2">
-        <f t="shared" si="16"/>
-        <v>9060072</v>
-      </c>
       <c r="I99" s="2">
-        <f t="shared" si="17"/>
+        <f>(D99-G99)</f>
         <v>2223443</v>
       </c>
     </row>
@@ -3506,21 +3509,21 @@
         <v>2621839</v>
       </c>
       <c r="E100" s="2">
+        <f>(D100-F100)</f>
+        <v>1975544</v>
+      </c>
+      <c r="F100" s="2">
         <v>646295</v>
       </c>
-      <c r="F100" s="2">
+      <c r="G100" s="2">
         <v>323148</v>
       </c>
-      <c r="G100" s="2">
-        <f t="shared" ref="G100:G101" si="18">AVERAGE(C94:C100)</f>
+      <c r="H100" s="2">
+        <f>AVERAGE(C94:C100)</f>
         <v>74208.428571428565</v>
       </c>
-      <c r="H100" s="2">
-        <f t="shared" ref="H100:H101" si="19">H99-C100</f>
-        <v>8983873</v>
-      </c>
       <c r="I100" s="2">
-        <f t="shared" ref="I100:I101" si="20">(D100-F100)</f>
+        <f>(D100-G100)</f>
         <v>2298691</v>
       </c>
     </row>
@@ -3538,21 +3541,21 @@
         <v>2726221</v>
       </c>
       <c r="E101" s="2">
+        <f>(D101-F101)</f>
+        <v>2076655</v>
+      </c>
+      <c r="F101" s="2">
         <v>649566</v>
       </c>
-      <c r="F101" s="2">
+      <c r="G101" s="2">
         <v>324783</v>
       </c>
-      <c r="G101" s="2">
-        <f t="shared" si="18"/>
+      <c r="H101" s="2">
+        <f>AVERAGE(C95:C101)</f>
         <v>76281.142857142855</v>
       </c>
-      <c r="H101" s="2">
-        <f t="shared" si="19"/>
-        <v>8879491</v>
-      </c>
       <c r="I101" s="2">
-        <f t="shared" si="20"/>
+        <f>(D101-G101)</f>
         <v>2401438</v>
       </c>
     </row>
@@ -3570,21 +3573,21 @@
         <v>2834784</v>
       </c>
       <c r="E102" s="2">
+        <f>(D102-F102)</f>
+        <v>2182065</v>
+      </c>
+      <c r="F102" s="2">
         <v>652719</v>
       </c>
-      <c r="F102" s="2">
+      <c r="G102" s="2">
         <v>326360</v>
       </c>
-      <c r="G102" s="2">
-        <f t="shared" ref="G102" si="21">AVERAGE(C96:C102)</f>
+      <c r="H102" s="2">
+        <f>AVERAGE(C96:C102)</f>
         <v>79781.571428571435</v>
       </c>
-      <c r="H102" s="2">
-        <f t="shared" ref="H102" si="22">H101-C102</f>
-        <v>8770928</v>
-      </c>
       <c r="I102" s="2">
-        <f t="shared" ref="I102" si="23">(D102-F102)</f>
+        <f>(D102-G102)</f>
         <v>2508424</v>
       </c>
     </row>
@@ -3602,21 +3605,21 @@
         <v>2940166</v>
       </c>
       <c r="E103" s="2">
+        <f>(D103-F103)</f>
+        <v>2282447</v>
+      </c>
+      <c r="F103" s="2">
         <v>657719</v>
       </c>
-      <c r="F103" s="2">
+      <c r="G103" s="2">
         <v>328598</v>
       </c>
-      <c r="G103" s="2">
-        <f t="shared" ref="G103" si="24">AVERAGE(C97:C103)</f>
+      <c r="H103" s="2">
+        <f>AVERAGE(C97:C103)</f>
         <v>82238.571428571435</v>
       </c>
-      <c r="H103" s="2">
-        <f t="shared" ref="H103" si="25">H102-C103</f>
-        <v>8665546</v>
-      </c>
       <c r="I103" s="2">
-        <f t="shared" ref="I103" si="26">(D103-F103)</f>
+        <f>(D103-G103)</f>
         <v>2611568</v>
       </c>
     </row>
@@ -3634,21 +3637,21 @@
         <v>3044949</v>
       </c>
       <c r="E104" s="2">
+        <f>(D104-F104)</f>
+        <v>2382986</v>
+      </c>
+      <c r="F104" s="2">
         <v>661963</v>
       </c>
-      <c r="F104" s="2">
+      <c r="G104" s="2">
         <v>330982</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" ref="G104" si="27">AVERAGE(C98:C104)</f>
+      <c r="H104" s="2">
+        <f>AVERAGE(C98:C104)</f>
         <v>88698</v>
       </c>
-      <c r="H104" s="2">
-        <f t="shared" ref="H104" si="28">H103-C104</f>
-        <v>8560763</v>
-      </c>
       <c r="I104" s="2">
-        <f t="shared" ref="I104" si="29">(D104-F104)</f>
+        <f>(D104-G104)</f>
         <v>2713967</v>
       </c>
     </row>
@@ -3666,21 +3669,21 @@
         <v>3139743</v>
       </c>
       <c r="E105" s="2">
+        <f>(D105-F105)</f>
+        <v>2473444</v>
+      </c>
+      <c r="F105" s="2">
         <v>666299</v>
       </c>
-      <c r="F105" s="2">
+      <c r="G105" s="2">
         <v>333150</v>
       </c>
-      <c r="G105" s="2">
-        <f t="shared" ref="G105" si="30">AVERAGE(C99:C105)</f>
+      <c r="H105" s="2">
+        <f>AVERAGE(C99:C105)</f>
         <v>92365</v>
       </c>
-      <c r="H105" s="2">
-        <f t="shared" ref="H105" si="31">H104-C105</f>
-        <v>8465969</v>
-      </c>
       <c r="I105" s="2">
-        <f t="shared" ref="I105" si="32">(D105-F105)</f>
+        <f>(D105-G105)</f>
         <v>2806593</v>
       </c>
     </row>
@@ -3698,21 +3701,21 @@
         <v>3214465</v>
       </c>
       <c r="E106" s="2">
+        <f>(D106-F106)</f>
+        <v>2547627</v>
+      </c>
+      <c r="F106" s="2">
         <v>666838</v>
       </c>
-      <c r="F106" s="2">
+      <c r="G106" s="2">
         <v>333419</v>
       </c>
-      <c r="G106" s="2">
-        <f t="shared" ref="G106" si="33">AVERAGE(C100:C106)</f>
+      <c r="H106" s="2">
+        <f>AVERAGE(C100:C106)</f>
         <v>95546.428571428565</v>
       </c>
-      <c r="H106" s="2">
-        <f t="shared" ref="H106" si="34">H105-C106</f>
-        <v>8391247</v>
-      </c>
       <c r="I106" s="2">
-        <f t="shared" ref="I106" si="35">(D106-F106)</f>
+        <f>(D106-G106)</f>
         <v>2881046</v>
       </c>
     </row>
@@ -3730,21 +3733,21 @@
         <v>3310157</v>
       </c>
       <c r="E107" s="2">
+        <f>(D107-F107)</f>
+        <v>2639633</v>
+      </c>
+      <c r="F107" s="2">
         <v>670524</v>
       </c>
-      <c r="F107" s="2">
+      <c r="G107" s="2">
         <v>335262</v>
       </c>
-      <c r="G107" s="2">
-        <f t="shared" ref="G107" si="36">AVERAGE(C101:C107)</f>
+      <c r="H107" s="2">
+        <f>AVERAGE(C101:C107)</f>
         <v>98331.142857142855</v>
       </c>
-      <c r="H107" s="2">
-        <f t="shared" ref="H107" si="37">H106-C107</f>
-        <v>8295555</v>
-      </c>
       <c r="I107" s="2">
-        <f t="shared" ref="I107" si="38">(D107-F107)</f>
+        <f>(D107-G107)</f>
         <v>2974895</v>
       </c>
     </row>
@@ -3762,21 +3765,21 @@
         <v>3422974</v>
       </c>
       <c r="E108" s="2">
+        <f>(D108-F108)</f>
+        <v>2748563</v>
+      </c>
+      <c r="F108" s="2">
         <v>674411</v>
       </c>
-      <c r="F108" s="2">
+      <c r="G108" s="2">
         <v>337206</v>
       </c>
-      <c r="G108" s="2">
-        <f t="shared" ref="G108" si="39">AVERAGE(C102:C108)</f>
+      <c r="H108" s="2">
+        <f>AVERAGE(C102:C108)</f>
         <v>99536.142857142855</v>
       </c>
-      <c r="H108" s="2">
-        <f t="shared" ref="H108" si="40">H107-C108</f>
-        <v>8182738</v>
-      </c>
       <c r="I108" s="2">
-        <f t="shared" ref="I108" si="41">(D108-F108)</f>
+        <f>(D108-G108)</f>
         <v>3085768</v>
       </c>
     </row>
@@ -3794,21 +3797,21 @@
         <v>3528404</v>
       </c>
       <c r="E109" s="2">
+        <f>(D109-F109)</f>
+        <v>2849423</v>
+      </c>
+      <c r="F109" s="2">
         <v>678981</v>
       </c>
-      <c r="F109" s="2">
+      <c r="G109" s="2">
         <v>339491</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <f>AVERAGE(C103:C109)</f>
         <v>99088.571428571435</v>
       </c>
-      <c r="H109" s="2">
-        <f t="shared" ref="H109" si="42">H108-C109</f>
-        <v>8077308</v>
-      </c>
       <c r="I109" s="2">
-        <f t="shared" ref="I109" si="43">(D109-F109)</f>
+        <f>(D109-G109)</f>
         <v>3188913</v>
       </c>
     </row>
@@ -3826,23 +3829,81 @@
         <v>3644038</v>
       </c>
       <c r="E110" s="2">
+        <f>(D110-F110)</f>
+        <v>2960172</v>
+      </c>
+      <c r="F110" s="2">
         <v>683866</v>
       </c>
-      <c r="F110" s="2">
+      <c r="G110" s="2">
         <v>341933</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <f>AVERAGE(C104:C110)</f>
         <v>100553.14285714286</v>
       </c>
-      <c r="H110" s="2">
-        <f t="shared" ref="H110" si="44">H109-C110</f>
-        <v>7961674</v>
-      </c>
       <c r="I110" s="2">
-        <f t="shared" ref="I110" si="45">(D110-F110)</f>
+        <f>(D110-G110)</f>
         <v>3302105</v>
       </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>44303</v>
+      </c>
+      <c r="C111" s="2">
+        <v>107278</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3751316</v>
+      </c>
+      <c r="E111" s="2">
+        <f>(D111-F111)</f>
+        <v>3062828</v>
+      </c>
+      <c r="F111" s="2">
+        <v>688488</v>
+      </c>
+      <c r="G111" s="2">
+        <v>344244</v>
+      </c>
+      <c r="H111" s="2">
+        <f>AVERAGE(C105:C111)</f>
+        <v>100909.57142857143</v>
+      </c>
+      <c r="I111" s="2">
+        <f>(D111-G111)</f>
+        <v>3407072</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F118" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FFA1FB-F772-BE48-9925-92CC03AFB744}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889CB22-2421-8C4C-8405-5B5510CA3EF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>_id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Total First Doses</t>
+  </si>
+  <si>
+    <t>Daily First Doses</t>
   </si>
 </sst>
 </file>
@@ -413,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,9 +431,10 @@
     <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +462,11 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,13 +477,13 @@
         <v>10756</v>
       </c>
       <c r="E2" s="2">
-        <f>(D2-F2)</f>
+        <f t="shared" ref="E2:E33" si="0">(D2-F2)</f>
         <v>10756</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,13 +497,13 @@
         <v>18603</v>
       </c>
       <c r="E3" s="2">
-        <f>(D3-F3)</f>
+        <f t="shared" si="0"/>
         <v>18603</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -510,12 +517,12 @@
         <v>23502</v>
       </c>
       <c r="E4" s="2">
-        <f>(D4-F4)</f>
+        <f t="shared" si="0"/>
         <v>23502</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -529,12 +536,12 @@
         <v>28887</v>
       </c>
       <c r="E5" s="2">
-        <f>(D5-F5)</f>
+        <f t="shared" si="0"/>
         <v>28887</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -548,12 +555,12 @@
         <v>33191</v>
       </c>
       <c r="E6" s="2">
-        <f>(D6-F6)</f>
+        <f t="shared" si="0"/>
         <v>33191</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -567,12 +574,12 @@
         <v>37551</v>
       </c>
       <c r="E7" s="2">
-        <f>(D7-F7)</f>
+        <f t="shared" si="0"/>
         <v>37551</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -586,12 +593,12 @@
         <v>42419</v>
       </c>
       <c r="E8" s="2">
-        <f>(D8-F8)</f>
+        <f t="shared" si="0"/>
         <v>42419</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -605,16 +612,16 @@
         <v>50030</v>
       </c>
       <c r="E9" s="2">
-        <f>(D9-F9)</f>
+        <f t="shared" si="0"/>
         <v>50030</v>
       </c>
       <c r="H9" s="2">
-        <f>AVERAGE(C3:C9)</f>
+        <f t="shared" ref="H9:H40" si="1">AVERAGE(C3:C9)</f>
         <v>5222</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -628,7 +635,7 @@
         <v>60380</v>
       </c>
       <c r="E10" s="2">
-        <f>(D10-F10)</f>
+        <f t="shared" si="0"/>
         <v>59520</v>
       </c>
       <c r="F10">
@@ -638,15 +645,19 @@
         <v>430</v>
       </c>
       <c r="H10" s="2">
-        <f>AVERAGE(C4:C10)</f>
+        <f t="shared" si="1"/>
         <v>6044.1428571428569</v>
       </c>
       <c r="I10" s="2">
-        <f>(D10-G10)</f>
+        <f t="shared" ref="I10:I41" si="2">(D10-G10)</f>
         <v>59950</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:J73" si="3">(I10-I9)</f>
+        <v>59950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -660,7 +671,7 @@
         <v>72631</v>
       </c>
       <c r="E11" s="2">
-        <f>(D11-F11)</f>
+        <f t="shared" si="0"/>
         <v>70458</v>
       </c>
       <c r="F11" s="2">
@@ -670,15 +681,19 @@
         <v>1087</v>
       </c>
       <c r="H11" s="2">
-        <f>AVERAGE(C5:C11)</f>
+        <f t="shared" si="1"/>
         <v>7013.8571428571431</v>
       </c>
       <c r="I11" s="2">
-        <f>(D11-G11)</f>
+        <f t="shared" si="2"/>
         <v>71544</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <f t="shared" si="3"/>
+        <v>11594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -692,7 +707,7 @@
         <v>87563</v>
       </c>
       <c r="E12" s="2">
-        <f>(D12-F12)</f>
+        <f t="shared" si="0"/>
         <v>83510</v>
       </c>
       <c r="F12" s="2">
@@ -702,15 +717,19 @@
         <v>2027</v>
       </c>
       <c r="H12" s="2">
-        <f>AVERAGE(C6:C12)</f>
+        <f t="shared" si="1"/>
         <v>8373.4285714285706</v>
       </c>
       <c r="I12" s="2">
-        <f>(D12-G12)</f>
+        <f t="shared" si="2"/>
         <v>85536</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>13992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -724,7 +743,7 @@
         <v>103263</v>
       </c>
       <c r="E13" s="2">
-        <f>(D13-F13)</f>
+        <f t="shared" si="0"/>
         <v>97383</v>
       </c>
       <c r="F13" s="2">
@@ -734,15 +753,19 @@
         <v>2940</v>
       </c>
       <c r="H13" s="2">
-        <f>AVERAGE(C7:C13)</f>
+        <f t="shared" si="1"/>
         <v>10001.285714285714</v>
       </c>
       <c r="I13" s="2">
-        <f>(D13-G13)</f>
+        <f t="shared" si="2"/>
         <v>100323</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>14787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -756,7 +779,7 @@
         <v>113246</v>
       </c>
       <c r="E14" s="2">
-        <f>(D14-F14)</f>
+        <f t="shared" si="0"/>
         <v>107362</v>
       </c>
       <c r="F14" s="2">
@@ -766,15 +789,19 @@
         <v>2942</v>
       </c>
       <c r="H14" s="2">
-        <f>AVERAGE(C8:C14)</f>
+        <f t="shared" si="1"/>
         <v>10804.428571428571</v>
       </c>
       <c r="I14" s="2">
-        <f>(D14-G14)</f>
+        <f t="shared" si="2"/>
         <v>110304</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>9981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -788,7 +815,7 @@
         <v>122105</v>
       </c>
       <c r="E15" s="2">
-        <f>(D15-F15)</f>
+        <f t="shared" si="0"/>
         <v>116221</v>
       </c>
       <c r="F15" s="2">
@@ -798,15 +825,19 @@
         <v>2942</v>
       </c>
       <c r="H15" s="2">
-        <f>AVERAGE(C9:C15)</f>
+        <f t="shared" si="1"/>
         <v>11383.142857142857</v>
       </c>
       <c r="I15" s="2">
-        <f>(D15-G15)</f>
+        <f t="shared" si="2"/>
         <v>119163</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -820,7 +851,7 @@
         <v>133553</v>
       </c>
       <c r="E16" s="2">
-        <f>(D16-F16)</f>
+        <f t="shared" si="0"/>
         <v>127507</v>
       </c>
       <c r="F16" s="2">
@@ -830,15 +861,19 @@
         <v>3023</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(C10:C16)</f>
+        <f t="shared" si="1"/>
         <v>11931.857142857143</v>
       </c>
       <c r="I16" s="2">
-        <f>(D16-G16)</f>
+        <f t="shared" si="2"/>
         <v>130530</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>11367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -852,7 +887,7 @@
         <v>144784</v>
       </c>
       <c r="E17" s="2">
-        <f>(D17-F17)</f>
+        <f t="shared" si="0"/>
         <v>136006</v>
       </c>
       <c r="F17" s="2">
@@ -862,15 +897,19 @@
         <v>4389</v>
       </c>
       <c r="H17" s="2">
-        <f>AVERAGE(C11:C17)</f>
+        <f t="shared" si="1"/>
         <v>12057.714285714286</v>
       </c>
       <c r="I17" s="2">
-        <f>(D17-G17)</f>
+        <f t="shared" si="2"/>
         <v>140395</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -884,7 +923,7 @@
         <v>159021</v>
       </c>
       <c r="E18" s="2">
-        <f>(D18-F18)</f>
+        <f t="shared" si="0"/>
         <v>145728</v>
       </c>
       <c r="F18" s="2">
@@ -894,15 +933,19 @@
         <v>6647</v>
       </c>
       <c r="H18" s="2">
-        <f>AVERAGE(C12:C18)</f>
+        <f t="shared" si="1"/>
         <v>12341.428571428571</v>
       </c>
       <c r="I18" s="2">
-        <f>(D18-G18)</f>
+        <f t="shared" si="2"/>
         <v>152374</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -916,7 +959,7 @@
         <v>174630</v>
       </c>
       <c r="E19" s="2">
-        <f>(D19-F19)</f>
+        <f t="shared" si="0"/>
         <v>157536</v>
       </c>
       <c r="F19" s="2">
@@ -926,15 +969,19 @@
         <v>8547</v>
       </c>
       <c r="H19" s="2">
-        <f>AVERAGE(C13:C19)</f>
+        <f t="shared" si="1"/>
         <v>12438.142857142857</v>
       </c>
       <c r="I19" s="2">
-        <f>(D19-G19)</f>
+        <f t="shared" si="2"/>
         <v>166083</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>13709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -948,7 +995,7 @@
         <v>189090</v>
       </c>
       <c r="E20" s="2">
-        <f>(D20-F20)</f>
+        <f t="shared" si="0"/>
         <v>169757</v>
       </c>
       <c r="F20" s="2">
@@ -958,15 +1005,19 @@
         <v>9667</v>
       </c>
       <c r="H20" s="2">
-        <f>AVERAGE(C14:C20)</f>
+        <f t="shared" si="1"/>
         <v>12261</v>
       </c>
       <c r="I20" s="2">
-        <f>(D20-G20)</f>
+        <f t="shared" si="2"/>
         <v>179423</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -980,7 +1031,7 @@
         <v>200097</v>
       </c>
       <c r="E21" s="2">
-        <f>(D21-F21)</f>
+        <f t="shared" si="0"/>
         <v>178383</v>
       </c>
       <c r="F21" s="2">
@@ -990,15 +1041,19 @@
         <v>10857</v>
       </c>
       <c r="H21" s="2">
-        <f>AVERAGE(C15:C21)</f>
+        <f t="shared" si="1"/>
         <v>12407.285714285714</v>
       </c>
       <c r="I21" s="2">
-        <f>(D21-G21)</f>
+        <f t="shared" si="2"/>
         <v>189240</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1012,7 +1067,7 @@
         <v>209788</v>
       </c>
       <c r="E22" s="2">
-        <f>(D22-F22)</f>
+        <f t="shared" si="0"/>
         <v>188036</v>
       </c>
       <c r="F22" s="2">
@@ -1022,15 +1077,19 @@
         <v>10876</v>
       </c>
       <c r="H22" s="2">
-        <f>AVERAGE(C16:C22)</f>
+        <f t="shared" si="1"/>
         <v>12526.142857142857</v>
       </c>
       <c r="I22" s="2">
-        <f>(D22-G22)</f>
+        <f t="shared" si="2"/>
         <v>198912</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>9672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1044,7 +1103,7 @@
         <v>224134</v>
       </c>
       <c r="E23" s="2">
-        <f>(D23-F23)</f>
+        <f t="shared" si="0"/>
         <v>198525</v>
       </c>
       <c r="F23" s="2">
@@ -1054,15 +1113,19 @@
         <v>12805</v>
       </c>
       <c r="H23" s="2">
-        <f>AVERAGE(C17:C23)</f>
+        <f t="shared" si="1"/>
         <v>12940.142857142857</v>
       </c>
       <c r="I23" s="2">
-        <f>(D23-G23)</f>
+        <f t="shared" si="2"/>
         <v>211329</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>12417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1076,7 +1139,7 @@
         <v>237918</v>
       </c>
       <c r="E24" s="2">
-        <f>(D24-F24)</f>
+        <f t="shared" si="0"/>
         <v>205557</v>
       </c>
       <c r="F24" s="2">
@@ -1086,15 +1149,19 @@
         <v>16181</v>
       </c>
       <c r="H24" s="2">
-        <f>AVERAGE(C18:C24)</f>
+        <f t="shared" si="1"/>
         <v>13304.857142857143</v>
       </c>
       <c r="I24" s="2">
-        <f>(D24-G24)</f>
+        <f t="shared" si="2"/>
         <v>221737</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>10408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1108,7 +1175,7 @@
         <v>253817</v>
       </c>
       <c r="E25" s="2">
-        <f>(D25-F25)</f>
+        <f t="shared" si="0"/>
         <v>213592</v>
       </c>
       <c r="F25" s="2">
@@ -1118,15 +1185,19 @@
         <v>20113</v>
       </c>
       <c r="H25" s="2">
-        <f>AVERAGE(C19:C25)</f>
+        <f t="shared" si="1"/>
         <v>13542.285714285714</v>
       </c>
       <c r="I25" s="2">
-        <f>(D25-G25)</f>
+        <f t="shared" si="2"/>
         <v>233704</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>11967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1140,7 +1211,7 @@
         <v>264985</v>
       </c>
       <c r="E26" s="2">
-        <f>(D26-F26)</f>
+        <f t="shared" si="0"/>
         <v>215693</v>
       </c>
       <c r="F26" s="2">
@@ -1150,15 +1221,19 @@
         <v>24646</v>
       </c>
       <c r="H26" s="2">
-        <f>AVERAGE(C20:C26)</f>
+        <f t="shared" si="1"/>
         <v>12907.857142857143</v>
       </c>
       <c r="I26" s="2">
-        <f>(D26-G26)</f>
+        <f t="shared" si="2"/>
         <v>240339</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1172,7 +1247,7 @@
         <v>276146</v>
       </c>
       <c r="E27" s="2">
-        <f>(D27-F27)</f>
+        <f t="shared" si="0"/>
         <v>218239</v>
       </c>
       <c r="F27" s="2">
@@ -1182,15 +1257,19 @@
         <v>28954</v>
       </c>
       <c r="H27" s="2">
-        <f>AVERAGE(C21:C27)</f>
+        <f t="shared" si="1"/>
         <v>12436.571428571429</v>
       </c>
       <c r="I27" s="2">
-        <f>(D27-G27)</f>
+        <f t="shared" si="2"/>
         <v>247192</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2">
+        <f t="shared" si="3"/>
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1204,7 +1283,7 @@
         <v>280573</v>
       </c>
       <c r="E28" s="2">
-        <f>(D28-F28)</f>
+        <f t="shared" si="0"/>
         <v>217692</v>
       </c>
       <c r="F28" s="2">
@@ -1214,15 +1293,19 @@
         <v>31441</v>
       </c>
       <c r="H28" s="2">
-        <f>AVERAGE(C22:C28)</f>
+        <f t="shared" si="1"/>
         <v>11496.571428571429</v>
       </c>
       <c r="I28" s="2">
-        <f>(D28-G28)</f>
+        <f t="shared" si="2"/>
         <v>249132</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <f t="shared" si="3"/>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1236,7 +1319,7 @@
         <v>286110</v>
       </c>
       <c r="E29" s="2">
-        <f>(D29-F29)</f>
+        <f t="shared" si="0"/>
         <v>214854</v>
       </c>
       <c r="F29" s="2">
@@ -1246,15 +1329,19 @@
         <v>35628</v>
       </c>
       <c r="H29" s="2">
-        <f>AVERAGE(C23:C29)</f>
+        <f t="shared" si="1"/>
         <v>10903.142857142857</v>
       </c>
       <c r="I29" s="2">
-        <f>(D29-G29)</f>
+        <f t="shared" si="2"/>
         <v>250482</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1268,7 +1355,7 @@
         <v>295817</v>
       </c>
       <c r="E30" s="2">
-        <f>(D30-F30)</f>
+        <f t="shared" si="0"/>
         <v>212532</v>
       </c>
       <c r="F30" s="2">
@@ -1278,15 +1365,19 @@
         <v>41643</v>
       </c>
       <c r="H30" s="2">
-        <f>AVERAGE(C24:C30)</f>
+        <f t="shared" si="1"/>
         <v>10240.428571428571</v>
       </c>
       <c r="I30" s="2">
-        <f>(D30-G30)</f>
+        <f t="shared" si="2"/>
         <v>254174</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <f t="shared" si="3"/>
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1300,7 +1391,7 @@
         <v>305330</v>
       </c>
       <c r="E31" s="2">
-        <f>(D31-F31)</f>
+        <f t="shared" si="0"/>
         <v>208871</v>
       </c>
       <c r="F31" s="2">
@@ -1310,15 +1401,19 @@
         <v>48230</v>
       </c>
       <c r="H31" s="2">
-        <f>AVERAGE(C25:C31)</f>
+        <f t="shared" si="1"/>
         <v>9630.2857142857138</v>
       </c>
       <c r="I31" s="2">
-        <f>(D31-G31)</f>
+        <f t="shared" si="2"/>
         <v>257100</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <f t="shared" si="3"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1332,7 +1427,7 @@
         <v>317240</v>
       </c>
       <c r="E32" s="2">
-        <f>(D32-F32)</f>
+        <f t="shared" si="0"/>
         <v>206669</v>
       </c>
       <c r="F32" s="2">
@@ -1342,15 +1437,19 @@
         <v>55286</v>
       </c>
       <c r="H32" s="2">
-        <f>AVERAGE(C26:C32)</f>
+        <f t="shared" si="1"/>
         <v>9060.4285714285706</v>
       </c>
       <c r="I32" s="2">
-        <f>(D32-G32)</f>
+        <f t="shared" si="2"/>
         <v>261954</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <f t="shared" si="3"/>
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1364,7 +1463,7 @@
         <v>327455</v>
       </c>
       <c r="E33" s="2">
-        <f>(D33-F33)</f>
+        <f t="shared" si="0"/>
         <v>204098</v>
       </c>
       <c r="F33" s="2">
@@ -1374,15 +1473,19 @@
         <v>61679</v>
       </c>
       <c r="H33" s="2">
-        <f>AVERAGE(C27:C33)</f>
+        <f t="shared" si="1"/>
         <v>8924.2857142857138</v>
       </c>
       <c r="I33" s="2">
-        <f>(D33-G33)</f>
+        <f t="shared" si="2"/>
         <v>265776</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <f t="shared" si="3"/>
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1396,7 +1499,7 @@
         <v>336828</v>
       </c>
       <c r="E34" s="2">
-        <f>(D34-F34)</f>
+        <f t="shared" ref="E34:E65" si="4">(D34-F34)</f>
         <v>201254</v>
       </c>
       <c r="F34" s="2">
@@ -1406,15 +1509,19 @@
         <v>67787</v>
       </c>
       <c r="H34" s="2">
-        <f>AVERAGE(C28:C34)</f>
+        <f t="shared" si="1"/>
         <v>8668.8571428571431</v>
       </c>
       <c r="I34" s="2">
-        <f>(D34-G34)</f>
+        <f t="shared" si="2"/>
         <v>269041</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2">
+        <f t="shared" si="3"/>
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1428,7 +1535,7 @@
         <v>339644</v>
       </c>
       <c r="E35" s="2">
-        <f>(D35-F35)</f>
+        <f t="shared" si="4"/>
         <v>201946</v>
       </c>
       <c r="F35" s="2">
@@ -1438,15 +1545,19 @@
         <v>68849</v>
       </c>
       <c r="H35" s="2">
-        <f>AVERAGE(C29:C35)</f>
+        <f t="shared" si="1"/>
         <v>8438.7142857142862</v>
       </c>
       <c r="I35" s="2">
-        <f>(D35-G35)</f>
+        <f t="shared" si="2"/>
         <v>270795</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1460,7 +1571,7 @@
         <v>341900</v>
       </c>
       <c r="E36" s="2">
-        <f>(D36-F36)</f>
+        <f t="shared" si="4"/>
         <v>201315</v>
       </c>
       <c r="F36" s="2">
@@ -1470,15 +1581,19 @@
         <v>70293</v>
       </c>
       <c r="H36" s="2">
-        <f>AVERAGE(C30:C36)</f>
+        <f t="shared" si="1"/>
         <v>7970</v>
       </c>
       <c r="I36" s="2">
-        <f>(D36-G36)</f>
+        <f t="shared" si="2"/>
         <v>271607</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2">
+        <f t="shared" si="3"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1492,7 +1607,7 @@
         <v>344615</v>
       </c>
       <c r="E37" s="2">
-        <f>(D37-F37)</f>
+        <f t="shared" si="4"/>
         <v>200502</v>
       </c>
       <c r="F37" s="2">
@@ -1502,15 +1617,19 @@
         <v>72057</v>
       </c>
       <c r="H37" s="2">
-        <f>AVERAGE(C31:C37)</f>
+        <f t="shared" si="1"/>
         <v>6971.1428571428569</v>
       </c>
       <c r="I37" s="2">
-        <f>(D37-G37)</f>
+        <f t="shared" si="2"/>
         <v>272558</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2">
+        <f t="shared" si="3"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1524,7 +1643,7 @@
         <v>348331</v>
       </c>
       <c r="E38" s="2">
-        <f>(D38-F38)</f>
+        <f t="shared" si="4"/>
         <v>198344</v>
       </c>
       <c r="F38" s="2">
@@ -1534,15 +1653,19 @@
         <v>74994</v>
       </c>
       <c r="H38" s="2">
-        <f>AVERAGE(C32:C38)</f>
+        <f t="shared" si="1"/>
         <v>6143</v>
       </c>
       <c r="I38" s="2">
-        <f>(D38-G38)</f>
+        <f t="shared" si="2"/>
         <v>273337</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1556,7 +1679,7 @@
         <v>355055</v>
       </c>
       <c r="E39" s="2">
-        <f>(D39-F39)</f>
+        <f t="shared" si="4"/>
         <v>193101</v>
       </c>
       <c r="F39" s="2">
@@ -1566,15 +1689,19 @@
         <v>80977</v>
       </c>
       <c r="H39" s="2">
-        <f>AVERAGE(C33:C39)</f>
+        <f t="shared" si="1"/>
         <v>5402.1428571428569</v>
       </c>
       <c r="I39" s="2">
-        <f>(D39-G39)</f>
+        <f t="shared" si="2"/>
         <v>274078</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1588,7 +1715,7 @@
         <v>362749</v>
       </c>
       <c r="E40" s="2">
-        <f>(D40-F40)</f>
+        <f t="shared" si="4"/>
         <v>187087</v>
       </c>
       <c r="F40" s="2">
@@ -1598,15 +1725,19 @@
         <v>87831</v>
       </c>
       <c r="H40" s="2">
-        <f>AVERAGE(C34:C40)</f>
+        <f t="shared" si="1"/>
         <v>5042</v>
       </c>
       <c r="I40" s="2">
-        <f>(D40-G40)</f>
+        <f t="shared" si="2"/>
         <v>274918</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1620,7 +1751,7 @@
         <v>372666</v>
       </c>
       <c r="E41" s="2">
-        <f>(D41-F41)</f>
+        <f t="shared" si="4"/>
         <v>179520</v>
       </c>
       <c r="F41" s="2">
@@ -1630,15 +1761,19 @@
         <v>96573</v>
       </c>
       <c r="H41" s="2">
-        <f>AVERAGE(C35:C41)</f>
+        <f t="shared" ref="H41:H72" si="5">AVERAGE(C35:C41)</f>
         <v>5119.7142857142853</v>
       </c>
       <c r="I41" s="2">
-        <f>(D41-G41)</f>
+        <f t="shared" si="2"/>
         <v>276093</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1652,7 +1787,7 @@
         <v>379184</v>
       </c>
       <c r="E42" s="2">
-        <f>(D42-F42)</f>
+        <f t="shared" si="4"/>
         <v>175697</v>
       </c>
       <c r="F42" s="2">
@@ -1662,15 +1797,19 @@
         <v>101744</v>
       </c>
       <c r="H42" s="2">
-        <f>AVERAGE(C36:C42)</f>
+        <f t="shared" si="5"/>
         <v>5648.5714285714284</v>
       </c>
       <c r="I42" s="2">
-        <f>(D42-G42)</f>
+        <f t="shared" ref="I42:I73" si="6">(D42-G42)</f>
         <v>277440</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2">
+        <f t="shared" si="3"/>
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1684,7 +1823,7 @@
         <v>386171</v>
       </c>
       <c r="E43" s="2">
-        <f>(D43-F43)</f>
+        <f t="shared" si="4"/>
         <v>173845</v>
       </c>
       <c r="F43" s="2">
@@ -1694,15 +1833,19 @@
         <v>106163</v>
       </c>
       <c r="H43" s="2">
-        <f>AVERAGE(C37:C43)</f>
+        <f t="shared" si="5"/>
         <v>6324.4285714285716</v>
       </c>
       <c r="I43" s="2">
-        <f>(D43-G43)</f>
+        <f t="shared" si="6"/>
         <v>280008</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2">
+        <f t="shared" si="3"/>
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1716,7 +1859,7 @@
         <v>398633</v>
       </c>
       <c r="E44" s="2">
-        <f>(D44-F44)</f>
+        <f t="shared" si="4"/>
         <v>167575</v>
       </c>
       <c r="F44" s="2">
@@ -1726,15 +1869,19 @@
         <v>115529</v>
       </c>
       <c r="H44" s="2">
-        <f>AVERAGE(C38:C44)</f>
+        <f t="shared" si="5"/>
         <v>7716.8571428571431</v>
       </c>
       <c r="I44" s="2">
-        <f>(D44-G44)</f>
+        <f t="shared" si="6"/>
         <v>283104</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2">
+        <f t="shared" si="3"/>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1748,7 +1895,7 @@
         <v>412119</v>
       </c>
       <c r="E45" s="2">
-        <f>(D45-F45)</f>
+        <f t="shared" si="4"/>
         <v>160670</v>
       </c>
       <c r="F45" s="2">
@@ -1758,15 +1905,19 @@
         <v>125725</v>
       </c>
       <c r="H45" s="2">
-        <f>AVERAGE(C39:C45)</f>
+        <f t="shared" si="5"/>
         <v>9112.5714285714294</v>
       </c>
       <c r="I45" s="2">
-        <f>(D45-G45)</f>
+        <f t="shared" si="6"/>
         <v>286394</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2">
+        <f t="shared" si="3"/>
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1780,7 +1931,7 @@
         <v>426836</v>
       </c>
       <c r="E46" s="2">
-        <f>(D46-F46)</f>
+        <f t="shared" si="4"/>
         <v>152861</v>
       </c>
       <c r="F46" s="2">
@@ -1790,15 +1941,19 @@
         <v>136988</v>
       </c>
       <c r="H46" s="2">
-        <f>AVERAGE(C40:C46)</f>
+        <f t="shared" si="5"/>
         <v>10254.428571428571</v>
       </c>
       <c r="I46" s="2">
-        <f>(D46-G46)</f>
+        <f t="shared" si="6"/>
         <v>289848</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1812,7 +1967,7 @@
         <v>442441</v>
       </c>
       <c r="E47" s="2">
-        <f>(D47-F47)</f>
+        <f t="shared" si="4"/>
         <v>139878</v>
       </c>
       <c r="F47" s="2">
@@ -1822,15 +1977,19 @@
         <v>151282</v>
       </c>
       <c r="H47" s="2">
-        <f>AVERAGE(C41:C47)</f>
+        <f t="shared" si="5"/>
         <v>11384.571428571429</v>
       </c>
       <c r="I47" s="2">
-        <f>(D47-G47)</f>
+        <f t="shared" si="6"/>
         <v>291159</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2">
+        <f t="shared" si="3"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1844,7 +2003,7 @@
         <v>456947</v>
       </c>
       <c r="E48" s="2">
-        <f>(D48-F48)</f>
+        <f t="shared" si="4"/>
         <v>128333</v>
       </c>
       <c r="F48" s="2">
@@ -1854,15 +2013,19 @@
         <v>164307</v>
       </c>
       <c r="H48" s="2">
-        <f>AVERAGE(C42:C48)</f>
+        <f t="shared" si="5"/>
         <v>12040.142857142857</v>
       </c>
       <c r="I48" s="2">
-        <f>(D48-G48)</f>
+        <f t="shared" si="6"/>
         <v>292640</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2">
+        <f t="shared" si="3"/>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1876,7 +2039,7 @@
         <v>467626</v>
       </c>
       <c r="E49" s="2">
-        <f>(D49-F49)</f>
+        <f t="shared" si="4"/>
         <v>118340</v>
       </c>
       <c r="F49" s="2">
@@ -1886,15 +2049,19 @@
         <v>174643</v>
       </c>
       <c r="H49" s="2">
-        <f>AVERAGE(C43:C49)</f>
+        <f t="shared" si="5"/>
         <v>12634.571428571429</v>
       </c>
       <c r="I49" s="2">
-        <f>(D49-G49)</f>
+        <f t="shared" si="6"/>
         <v>292983</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2">
+        <f t="shared" si="3"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1908,7 +2075,7 @@
         <v>475324</v>
       </c>
       <c r="E50" s="2">
-        <f>(D50-F50)</f>
+        <f t="shared" si="4"/>
         <v>111050</v>
       </c>
       <c r="F50" s="2">
@@ -1918,15 +2085,19 @@
         <v>182137</v>
       </c>
       <c r="H50" s="2">
-        <f>AVERAGE(C44:C50)</f>
+        <f t="shared" si="5"/>
         <v>12736.142857142857</v>
       </c>
       <c r="I50" s="2">
-        <f>(D50-G50)</f>
+        <f t="shared" si="6"/>
         <v>293187</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1940,7 +2111,7 @@
         <v>480377</v>
       </c>
       <c r="E51" s="2">
-        <f>(D51-F51)</f>
+        <f t="shared" si="4"/>
         <v>106510</v>
       </c>
       <c r="F51" s="2">
@@ -1950,15 +2121,19 @@
         <v>186934</v>
       </c>
       <c r="H51" s="2">
-        <f>AVERAGE(C45:C51)</f>
+        <f t="shared" si="5"/>
         <v>11677.714285714286</v>
       </c>
       <c r="I51" s="2">
-        <f>(D51-G51)</f>
+        <f t="shared" si="6"/>
         <v>293443</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="2">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1972,7 +2147,7 @@
         <v>489484</v>
       </c>
       <c r="E52" s="2">
-        <f>(D52-F52)</f>
+        <f t="shared" si="4"/>
         <v>98753</v>
       </c>
       <c r="F52" s="2">
@@ -1982,15 +2157,19 @@
         <v>195366</v>
       </c>
       <c r="H52" s="2">
-        <f>AVERAGE(C46:C52)</f>
+        <f t="shared" si="5"/>
         <v>11052.142857142857</v>
       </c>
       <c r="I52" s="2">
-        <f>(D52-G52)</f>
+        <f t="shared" si="6"/>
         <v>294118</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2">
+        <f t="shared" si="3"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2004,7 +2183,7 @@
         <v>501867</v>
       </c>
       <c r="E53" s="2">
-        <f>(D53-F53)</f>
+        <f t="shared" si="4"/>
         <v>90263</v>
       </c>
       <c r="F53" s="2">
@@ -2014,15 +2193,19 @@
         <v>205802</v>
       </c>
       <c r="H53" s="2">
-        <f>AVERAGE(C47:C53)</f>
+        <f t="shared" si="5"/>
         <v>10718.714285714286</v>
       </c>
       <c r="I53" s="2">
-        <f>(D53-G53)</f>
+        <f t="shared" si="6"/>
         <v>296065</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2036,7 +2219,7 @@
         <v>518834</v>
       </c>
       <c r="E54" s="2">
-        <f>(D54-F54)</f>
+        <f t="shared" si="4"/>
         <v>83405</v>
       </c>
       <c r="F54" s="2">
@@ -2046,15 +2229,19 @@
         <v>217715</v>
       </c>
       <c r="H54" s="2">
-        <f>AVERAGE(C48:C54)</f>
+        <f t="shared" si="5"/>
         <v>10913.285714285714</v>
       </c>
       <c r="I54" s="2">
-        <f>(D54-G54)</f>
+        <f t="shared" si="6"/>
         <v>301119</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2">
+        <f t="shared" si="3"/>
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2068,7 +2255,7 @@
         <v>540129</v>
       </c>
       <c r="E55" s="2">
-        <f>(D55-F55)</f>
+        <f t="shared" si="4"/>
         <v>81828</v>
       </c>
       <c r="F55" s="2">
@@ -2078,15 +2265,19 @@
         <v>229151</v>
       </c>
       <c r="H55" s="2">
-        <f>AVERAGE(C49:C55)</f>
+        <f t="shared" si="5"/>
         <v>11883.142857142857</v>
       </c>
       <c r="I55" s="2">
-        <f>(D55-G55)</f>
+        <f t="shared" si="6"/>
         <v>310978</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="2">
+        <f t="shared" si="3"/>
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2100,7 +2291,7 @@
         <v>556533</v>
       </c>
       <c r="E56" s="2">
-        <f>(D56-F56)</f>
+        <f t="shared" si="4"/>
         <v>84690</v>
       </c>
       <c r="F56" s="2">
@@ -2110,15 +2301,19 @@
         <v>235922</v>
       </c>
       <c r="H56" s="2">
-        <f>AVERAGE(C50:C56)</f>
+        <f t="shared" si="5"/>
         <v>12701</v>
       </c>
       <c r="I56" s="2">
-        <f>(D56-G56)</f>
+        <f t="shared" si="6"/>
         <v>320611</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="2">
+        <f t="shared" si="3"/>
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2132,7 +2327,7 @@
         <v>569455</v>
       </c>
       <c r="E57" s="2">
-        <f>(D57-F57)</f>
+        <f t="shared" si="4"/>
         <v>88118</v>
       </c>
       <c r="F57" s="2">
@@ -2142,15 +2337,19 @@
         <v>240669</v>
       </c>
       <c r="H57" s="2">
-        <f>AVERAGE(C51:C57)</f>
+        <f t="shared" si="5"/>
         <v>13447.285714285714</v>
       </c>
       <c r="I57" s="2">
-        <f>(D57-G57)</f>
+        <f t="shared" si="6"/>
         <v>328786</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2">
+        <f t="shared" si="3"/>
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2164,7 +2363,7 @@
         <v>585707</v>
       </c>
       <c r="E58" s="2">
-        <f>(D58-F58)</f>
+        <f t="shared" si="4"/>
         <v>91624</v>
       </c>
       <c r="F58" s="2">
@@ -2174,15 +2373,19 @@
         <v>247042</v>
       </c>
       <c r="H58" s="2">
-        <f>AVERAGE(C52:C58)</f>
+        <f t="shared" si="5"/>
         <v>15047.142857142857</v>
       </c>
       <c r="I58" s="2">
-        <f>(D58-G58)</f>
+        <f t="shared" si="6"/>
         <v>338665</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2">
+        <f t="shared" si="3"/>
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2196,7 +2399,7 @@
         <v>602848</v>
       </c>
       <c r="E59" s="2">
-        <f>(D59-F59)</f>
+        <f t="shared" si="4"/>
         <v>99668</v>
       </c>
       <c r="F59" s="2">
@@ -2206,15 +2409,19 @@
         <v>251590</v>
       </c>
       <c r="H59" s="2">
-        <f>AVERAGE(C53:C59)</f>
+        <f t="shared" si="5"/>
         <v>16194.857142857143</v>
       </c>
       <c r="I59" s="2">
-        <f>(D59-G59)</f>
+        <f t="shared" si="6"/>
         <v>351258</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="2">
+        <f t="shared" si="3"/>
+        <v>12593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2228,7 +2435,7 @@
         <v>621960</v>
       </c>
       <c r="E60" s="2">
-        <f>(D60-F60)</f>
+        <f t="shared" si="4"/>
         <v>111063</v>
       </c>
       <c r="F60" s="2">
@@ -2238,15 +2445,19 @@
         <v>255449</v>
       </c>
       <c r="H60" s="2">
-        <f>AVERAGE(C54:C60)</f>
+        <f t="shared" si="5"/>
         <v>17156.142857142859</v>
       </c>
       <c r="I60" s="2">
-        <f>(D60-G60)</f>
+        <f t="shared" si="6"/>
         <v>366511</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="2">
+        <f t="shared" si="3"/>
+        <v>15253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2260,7 +2471,7 @@
         <v>643765</v>
       </c>
       <c r="E61" s="2">
-        <f>(D61-F61)</f>
+        <f t="shared" si="4"/>
         <v>127737</v>
       </c>
       <c r="F61" s="2">
@@ -2270,15 +2481,19 @@
         <v>258014</v>
       </c>
       <c r="H61" s="2">
-        <f>AVERAGE(C55:C61)</f>
+        <f t="shared" si="5"/>
         <v>17847.285714285714</v>
       </c>
       <c r="I61" s="2">
-        <f>(D61-G61)</f>
+        <f t="shared" si="6"/>
         <v>385751</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="2">
+        <f t="shared" si="3"/>
+        <v>19240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2292,7 +2507,7 @@
         <v>668104</v>
       </c>
       <c r="E62" s="2">
-        <f>(D62-F62)</f>
+        <f t="shared" si="4"/>
         <v>146161</v>
       </c>
       <c r="F62" s="2">
@@ -2302,15 +2517,19 @@
         <v>260972</v>
       </c>
       <c r="H62" s="2">
-        <f>AVERAGE(C56:C62)</f>
+        <f t="shared" si="5"/>
         <v>18282.142857142859</v>
       </c>
       <c r="I62" s="2">
-        <f>(D62-G62)</f>
+        <f t="shared" si="6"/>
         <v>407132</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="2">
+        <f t="shared" si="3"/>
+        <v>21381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2324,7 +2543,7 @@
         <v>687271</v>
       </c>
       <c r="E63" s="2">
-        <f>(D63-F63)</f>
+        <f t="shared" si="4"/>
         <v>163066</v>
       </c>
       <c r="F63" s="2">
@@ -2334,15 +2553,19 @@
         <v>262103</v>
       </c>
       <c r="H63" s="2">
-        <f>AVERAGE(C57:C63)</f>
+        <f t="shared" si="5"/>
         <v>18676.857142857141</v>
       </c>
       <c r="I63" s="2">
-        <f>(D63-G63)</f>
+        <f t="shared" si="6"/>
         <v>425168</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2">
+        <f t="shared" si="3"/>
+        <v>18036</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2356,7 +2579,7 @@
         <v>704695</v>
       </c>
       <c r="E64" s="2">
-        <f>(D64-F64)</f>
+        <f t="shared" si="4"/>
         <v>178268</v>
       </c>
       <c r="F64" s="2">
@@ -2366,15 +2589,19 @@
         <v>263214</v>
       </c>
       <c r="H64" s="2">
-        <f>AVERAGE(C58:C64)</f>
+        <f t="shared" si="5"/>
         <v>19320</v>
       </c>
       <c r="I64" s="2">
-        <f>(D64-G64)</f>
+        <f t="shared" si="6"/>
         <v>441481</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2">
+        <f t="shared" si="3"/>
+        <v>16313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2388,7 +2615,7 @@
         <v>727021</v>
       </c>
       <c r="E65" s="2">
-        <f>(D65-F65)</f>
+        <f t="shared" si="4"/>
         <v>197229</v>
       </c>
       <c r="F65" s="2">
@@ -2398,15 +2625,19 @@
         <v>264896</v>
       </c>
       <c r="H65" s="2">
-        <f>AVERAGE(C59:C65)</f>
+        <f t="shared" si="5"/>
         <v>20187.714285714286</v>
       </c>
       <c r="I65" s="2">
-        <f>(D65-G65)</f>
+        <f t="shared" si="6"/>
         <v>462125</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="2">
+        <f t="shared" si="3"/>
+        <v>20644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2420,7 +2651,7 @@
         <v>754419</v>
       </c>
       <c r="E66" s="2">
-        <f>(D66-F66)</f>
+        <f t="shared" ref="E66:E97" si="7">(D66-F66)</f>
         <v>220999</v>
       </c>
       <c r="F66" s="2">
@@ -2430,15 +2661,19 @@
         <v>266710</v>
       </c>
       <c r="H66" s="2">
-        <f>AVERAGE(C60:C66)</f>
+        <f t="shared" si="5"/>
         <v>21653</v>
       </c>
       <c r="I66" s="2">
-        <f>(D66-G66)</f>
+        <f t="shared" si="6"/>
         <v>487709</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="2">
+        <f t="shared" si="3"/>
+        <v>25584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2452,7 +2687,7 @@
         <v>784828</v>
       </c>
       <c r="E67" s="2">
-        <f>(D67-F67)</f>
+        <f t="shared" si="7"/>
         <v>248593</v>
       </c>
       <c r="F67" s="2">
@@ -2462,15 +2697,19 @@
         <v>268118</v>
       </c>
       <c r="H67" s="2">
-        <f>AVERAGE(C61:C67)</f>
+        <f t="shared" si="5"/>
         <v>23266.857142857141</v>
       </c>
       <c r="I67" s="2">
-        <f>(D67-G67)</f>
+        <f t="shared" si="6"/>
         <v>516710</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="2">
+        <f t="shared" si="3"/>
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2484,7 +2723,7 @@
         <v>820714</v>
       </c>
       <c r="E68" s="2">
-        <f>(D68-F68)</f>
+        <f t="shared" si="7"/>
         <v>282588</v>
       </c>
       <c r="F68" s="2">
@@ -2494,15 +2733,19 @@
         <v>269063</v>
       </c>
       <c r="H68" s="2">
-        <f>AVERAGE(C62:C68)</f>
+        <f t="shared" si="5"/>
         <v>25278.428571428572</v>
       </c>
       <c r="I68" s="2">
-        <f>(D68-G68)</f>
+        <f t="shared" si="6"/>
         <v>551651</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="2">
+        <f t="shared" si="3"/>
+        <v>34941</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2516,7 +2759,7 @@
         <v>860412</v>
       </c>
       <c r="E69" s="2">
-        <f>(D69-F69)</f>
+        <f t="shared" si="7"/>
         <v>319162</v>
       </c>
       <c r="F69" s="2">
@@ -2526,15 +2769,19 @@
         <v>270625</v>
       </c>
       <c r="H69" s="2">
-        <f>AVERAGE(C63:C69)</f>
+        <f t="shared" si="5"/>
         <v>27472.571428571428</v>
       </c>
       <c r="I69" s="2">
-        <f>(D69-G69)</f>
+        <f t="shared" si="6"/>
         <v>589787</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="2">
+        <f t="shared" si="3"/>
+        <v>38136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2548,7 +2795,7 @@
         <v>890604</v>
       </c>
       <c r="E70" s="2">
-        <f>(D70-F70)</f>
+        <f t="shared" si="7"/>
         <v>346990</v>
       </c>
       <c r="F70" s="2">
@@ -2558,15 +2805,19 @@
         <v>271807</v>
       </c>
       <c r="H70" s="2">
-        <f>AVERAGE(C64:C70)</f>
+        <f t="shared" si="5"/>
         <v>29047.571428571428</v>
       </c>
       <c r="I70" s="2">
-        <f>(D70-G70)</f>
+        <f t="shared" si="6"/>
         <v>618797</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="2">
+        <f t="shared" si="3"/>
+        <v>29010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2580,7 +2831,7 @@
         <v>912486</v>
       </c>
       <c r="E71" s="2">
-        <f>(D71-F71)</f>
+        <f t="shared" si="7"/>
         <v>365134</v>
       </c>
       <c r="F71" s="2">
@@ -2590,15 +2841,19 @@
         <v>273676</v>
       </c>
       <c r="H71" s="2">
-        <f>AVERAGE(C65:C71)</f>
+        <f t="shared" si="5"/>
         <v>29684.428571428572</v>
       </c>
       <c r="I71" s="2">
-        <f>(D71-G71)</f>
+        <f t="shared" si="6"/>
         <v>638810</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="2">
+        <f t="shared" si="3"/>
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2612,7 +2867,7 @@
         <v>943533</v>
       </c>
       <c r="E72" s="2">
-        <f>(D72-F72)</f>
+        <f t="shared" si="7"/>
         <v>391148</v>
       </c>
       <c r="F72" s="2">
@@ -2622,15 +2877,19 @@
         <v>276193</v>
       </c>
       <c r="H72" s="2">
-        <f>AVERAGE(C66:C72)</f>
+        <f t="shared" si="5"/>
         <v>30930.285714285714</v>
       </c>
       <c r="I72" s="2">
-        <f>(D72-G72)</f>
+        <f t="shared" si="6"/>
         <v>667340</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="2">
+        <f t="shared" si="3"/>
+        <v>28530</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2644,7 +2903,7 @@
         <v>978797</v>
       </c>
       <c r="E73" s="2">
-        <f>(D73-F73)</f>
+        <f t="shared" si="7"/>
         <v>420390</v>
       </c>
       <c r="F73" s="2">
@@ -2654,15 +2913,19 @@
         <v>279204</v>
       </c>
       <c r="H73" s="2">
-        <f>AVERAGE(C67:C73)</f>
+        <f t="shared" ref="H73:H104" si="8">AVERAGE(C67:C73)</f>
         <v>32054</v>
       </c>
       <c r="I73" s="2">
-        <f>(D73-G73)</f>
+        <f t="shared" si="6"/>
         <v>699593</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="2">
+        <f t="shared" si="3"/>
+        <v>32253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2676,7 +2939,7 @@
         <v>1019407</v>
       </c>
       <c r="E74" s="2">
-        <f>(D74-F74)</f>
+        <f t="shared" si="7"/>
         <v>455979</v>
       </c>
       <c r="F74" s="2">
@@ -2686,15 +2949,19 @@
         <v>281714</v>
       </c>
       <c r="H74" s="2">
-        <f>AVERAGE(C68:C74)</f>
+        <f t="shared" si="8"/>
         <v>33511.285714285717</v>
       </c>
       <c r="I74" s="2">
-        <f>(D74-G74)</f>
+        <f t="shared" ref="I74:I105" si="9">(D74-G74)</f>
         <v>737693</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="2">
+        <f t="shared" ref="J74:J107" si="10">(I74-I73)</f>
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2708,7 +2975,7 @@
         <v>1062910</v>
       </c>
       <c r="E75" s="2">
-        <f>(D75-F75)</f>
+        <f t="shared" si="7"/>
         <v>497415</v>
       </c>
       <c r="F75" s="2">
@@ -2718,15 +2985,19 @@
         <v>282748</v>
       </c>
       <c r="H75" s="2">
-        <f>AVERAGE(C69:C75)</f>
+        <f t="shared" si="8"/>
         <v>34599.428571428572</v>
       </c>
       <c r="I75" s="2">
-        <f>(D75-G75)</f>
+        <f t="shared" si="9"/>
         <v>780162</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="2">
+        <f t="shared" si="10"/>
+        <v>42469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2740,7 +3011,7 @@
         <v>1116496</v>
       </c>
       <c r="E76" s="2">
-        <f>(D76-F76)</f>
+        <f t="shared" si="7"/>
         <v>547125</v>
       </c>
       <c r="F76" s="2">
@@ -2750,15 +3021,19 @@
         <v>284686</v>
       </c>
       <c r="H76" s="2">
-        <f>AVERAGE(C70:C76)</f>
+        <f t="shared" si="8"/>
         <v>36583.428571428572</v>
       </c>
       <c r="I76" s="2">
-        <f>(D76-G76)</f>
+        <f t="shared" si="9"/>
         <v>831810</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2">
+        <f t="shared" si="10"/>
+        <v>51648</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2772,7 +3047,7 @@
         <v>1158355</v>
       </c>
       <c r="E77" s="2">
-        <f>(D77-F77)</f>
+        <f t="shared" si="7"/>
         <v>587126</v>
       </c>
       <c r="F77" s="2">
@@ -2782,15 +3057,19 @@
         <v>285615</v>
       </c>
       <c r="H77" s="2">
-        <f>AVERAGE(C71:C77)</f>
+        <f t="shared" si="8"/>
         <v>38250.142857142855</v>
       </c>
       <c r="I77" s="2">
-        <f>(D77-G77)</f>
+        <f t="shared" si="9"/>
         <v>872740</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="2">
+        <f t="shared" si="10"/>
+        <v>40930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2804,7 +3083,7 @@
         <v>1191553</v>
       </c>
       <c r="E78" s="2">
-        <f>(D78-F78)</f>
+        <f t="shared" si="7"/>
         <v>616987</v>
       </c>
       <c r="F78" s="2">
@@ -2814,15 +3093,19 @@
         <v>287283</v>
       </c>
       <c r="H78" s="2">
-        <f>AVERAGE(C72:C78)</f>
+        <f t="shared" si="8"/>
         <v>39866.714285714283</v>
       </c>
       <c r="I78" s="2">
-        <f>(D78-G78)</f>
+        <f t="shared" si="9"/>
         <v>904270</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="2">
+        <f t="shared" si="10"/>
+        <v>31530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2836,7 +3119,7 @@
         <v>1243132</v>
       </c>
       <c r="E79" s="2">
-        <f>(D79-F79)</f>
+        <f t="shared" si="7"/>
         <v>665296</v>
       </c>
       <c r="F79" s="2">
@@ -2846,15 +3129,19 @@
         <v>288918</v>
       </c>
       <c r="H79" s="2">
-        <f>AVERAGE(C73:C79)</f>
+        <f t="shared" si="8"/>
         <v>42799.857142857145</v>
       </c>
       <c r="I79" s="2">
-        <f>(D79-G79)</f>
+        <f t="shared" si="9"/>
         <v>954214</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="2">
+        <f t="shared" si="10"/>
+        <v>49944</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2868,7 +3155,7 @@
         <v>1301334</v>
       </c>
       <c r="E80" s="2">
-        <f>(D80-F80)</f>
+        <f t="shared" si="7"/>
         <v>720016</v>
       </c>
       <c r="F80" s="2">
@@ -2878,12 +3165,16 @@
         <v>290659</v>
       </c>
       <c r="H80" s="2">
-        <f>AVERAGE(C74:C80)</f>
+        <f t="shared" si="8"/>
         <v>46076.714285714283</v>
       </c>
       <c r="I80" s="2">
-        <f>(D80-G80)</f>
+        <f t="shared" si="9"/>
         <v>1010675</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="10"/>
+        <v>56461</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -2900,7 +3191,7 @@
         <v>1359453</v>
       </c>
       <c r="E81" s="2">
-        <f>(D81-F81)</f>
+        <f t="shared" si="7"/>
         <v>774916</v>
       </c>
       <c r="F81" s="2">
@@ -2910,12 +3201,16 @@
         <v>292269</v>
       </c>
       <c r="H81" s="2">
-        <f>AVERAGE(C75:C81)</f>
+        <f t="shared" si="8"/>
         <v>48578</v>
       </c>
       <c r="I81" s="2">
-        <f>(D81-G81)</f>
+        <f t="shared" si="9"/>
         <v>1067184</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="10"/>
+        <v>56509</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -2932,7 +3227,7 @@
         <v>1420599</v>
       </c>
       <c r="E82" s="2">
-        <f>(D82-F82)</f>
+        <f t="shared" si="7"/>
         <v>831101</v>
       </c>
       <c r="F82" s="2">
@@ -2942,12 +3237,16 @@
         <v>294749</v>
       </c>
       <c r="H82" s="2">
-        <f>AVERAGE(C76:C82)</f>
+        <f t="shared" si="8"/>
         <v>51098.428571428572</v>
       </c>
       <c r="I82" s="2">
-        <f>(D82-G82)</f>
+        <f t="shared" si="9"/>
         <v>1125850</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="10"/>
+        <v>58666</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -2964,7 +3263,7 @@
         <v>1480882</v>
       </c>
       <c r="E83" s="2">
-        <f>(D83-F83)</f>
+        <f t="shared" si="7"/>
         <v>886615</v>
       </c>
       <c r="F83" s="2">
@@ -2974,12 +3273,16 @@
         <v>297134</v>
       </c>
       <c r="H83" s="2">
-        <f>AVERAGE(C77:C83)</f>
+        <f t="shared" si="8"/>
         <v>52055.142857142855</v>
       </c>
       <c r="I83" s="2">
-        <f>(D83-G83)</f>
+        <f t="shared" si="9"/>
         <v>1183748</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="10"/>
+        <v>57898</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -2996,7 +3299,7 @@
         <v>1521705</v>
       </c>
       <c r="E84" s="2">
-        <f>(D84-F84)</f>
+        <f t="shared" si="7"/>
         <v>924607</v>
       </c>
       <c r="F84" s="2">
@@ -3006,14 +3309,17 @@
         <v>298549</v>
       </c>
       <c r="H84" s="2">
-        <f>AVERAGE(C78:C84)</f>
+        <f t="shared" si="8"/>
         <v>51907.142857142855</v>
       </c>
       <c r="I84" s="2">
-        <f>(D84-G84)</f>
+        <f t="shared" si="9"/>
         <v>1223156</v>
       </c>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2">
+        <f t="shared" si="10"/>
+        <v>39408</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -3029,7 +3335,7 @@
         <v>1553040</v>
       </c>
       <c r="E85" s="2">
-        <f>(D85-F85)</f>
+        <f t="shared" si="7"/>
         <v>954446</v>
       </c>
       <c r="F85" s="2">
@@ -3039,12 +3345,16 @@
         <v>299297</v>
       </c>
       <c r="H85" s="2">
-        <f>AVERAGE(C79:C85)</f>
+        <f t="shared" si="8"/>
         <v>51641</v>
       </c>
       <c r="I85" s="2">
-        <f>(D85-G85)</f>
+        <f t="shared" si="9"/>
         <v>1253743</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="10"/>
+        <v>30587</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -3061,7 +3371,7 @@
         <v>1603699</v>
       </c>
       <c r="E86" s="2">
-        <f>(D86-F86)</f>
+        <f t="shared" si="7"/>
         <v>1001613</v>
       </c>
       <c r="F86" s="2">
@@ -3071,12 +3381,16 @@
         <v>301043</v>
       </c>
       <c r="H86" s="2">
-        <f>AVERAGE(C80:C86)</f>
+        <f t="shared" si="8"/>
         <v>51509.571428571428</v>
       </c>
       <c r="I86" s="2">
-        <f>(D86-G86)</f>
+        <f t="shared" si="9"/>
         <v>1302656</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="10"/>
+        <v>48913</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -3093,7 +3407,7 @@
         <v>1676150</v>
       </c>
       <c r="E87" s="2">
-        <f>(D87-F87)</f>
+        <f t="shared" si="7"/>
         <v>1070822</v>
       </c>
       <c r="F87" s="2">
@@ -3103,12 +3417,16 @@
         <v>302664</v>
       </c>
       <c r="H87" s="2">
-        <f>AVERAGE(C81:C87)</f>
+        <f t="shared" si="8"/>
         <v>53545.142857142855</v>
       </c>
       <c r="I87" s="2">
-        <f>(D87-G87)</f>
+        <f t="shared" si="9"/>
         <v>1373486</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="10"/>
+        <v>70830</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -3125,7 +3443,7 @@
         <v>1755596</v>
       </c>
       <c r="E88" s="2">
-        <f>(D88-F88)</f>
+        <f t="shared" si="7"/>
         <v>1146825</v>
       </c>
       <c r="F88" s="2">
@@ -3135,12 +3453,16 @@
         <v>304386</v>
       </c>
       <c r="H88" s="2">
-        <f>AVERAGE(C82:C88)</f>
+        <f t="shared" si="8"/>
         <v>56591.857142857145</v>
       </c>
       <c r="I88" s="2">
-        <f>(D88-G88)</f>
+        <f t="shared" si="9"/>
         <v>1451210</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="10"/>
+        <v>77724</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -3157,7 +3479,7 @@
         <v>1838592</v>
       </c>
       <c r="E89" s="2">
-        <f>(D89-F89)</f>
+        <f t="shared" si="7"/>
         <v>1225846</v>
       </c>
       <c r="F89" s="2">
@@ -3167,12 +3489,16 @@
         <v>306373</v>
       </c>
       <c r="H89" s="2">
-        <f>AVERAGE(C83:C89)</f>
+        <f t="shared" si="8"/>
         <v>59713.285714285717</v>
       </c>
       <c r="I89" s="2">
-        <f>(D89-G89)</f>
+        <f t="shared" si="9"/>
         <v>1532219</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="10"/>
+        <v>81009</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -3189,7 +3515,7 @@
         <v>1916332</v>
       </c>
       <c r="E90" s="2">
-        <f>(D90-F90)</f>
+        <f t="shared" si="7"/>
         <v>1299730</v>
       </c>
       <c r="F90" s="2">
@@ -3199,12 +3525,16 @@
         <v>308301</v>
       </c>
       <c r="H90" s="2">
-        <f>AVERAGE(C84:C90)</f>
+        <f t="shared" si="8"/>
         <v>62207.142857142855</v>
       </c>
       <c r="I90" s="2">
-        <f>(D90-G90)</f>
+        <f t="shared" si="9"/>
         <v>1608031</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="10"/>
+        <v>75812</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -3221,7 +3551,7 @@
         <v>1981282</v>
       </c>
       <c r="E91" s="2">
-        <f>(D91-F91)</f>
+        <f t="shared" si="7"/>
         <v>1362712</v>
       </c>
       <c r="F91" s="2">
@@ -3231,12 +3561,16 @@
         <v>309285</v>
       </c>
       <c r="H91" s="2">
-        <f>AVERAGE(C85:C91)</f>
+        <f t="shared" si="8"/>
         <v>65653.857142857145</v>
       </c>
       <c r="I91" s="2">
-        <f>(D91-G91)</f>
+        <f t="shared" si="9"/>
         <v>1671997</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="10"/>
+        <v>63966</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -3253,7 +3587,7 @@
         <v>2031735</v>
       </c>
       <c r="E92" s="2">
-        <f>(D92-F92)</f>
+        <f t="shared" si="7"/>
         <v>1409240</v>
       </c>
       <c r="F92" s="2">
@@ -3263,12 +3597,16 @@
         <v>311248</v>
       </c>
       <c r="H92" s="2">
-        <f>AVERAGE(C86:C92)</f>
+        <f t="shared" si="8"/>
         <v>68385</v>
       </c>
       <c r="I92" s="2">
-        <f>(D92-G92)</f>
+        <f t="shared" si="9"/>
         <v>1720487</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" si="10"/>
+        <v>48490</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -3285,7 +3623,7 @@
         <v>2102380</v>
       </c>
       <c r="E93" s="2">
-        <f>(D93-F93)</f>
+        <f t="shared" si="7"/>
         <v>1474602</v>
       </c>
       <c r="F93" s="2">
@@ -3295,12 +3633,16 @@
         <v>313889</v>
       </c>
       <c r="H93" s="2">
-        <f>AVERAGE(C87:C93)</f>
+        <f t="shared" si="8"/>
         <v>71240.142857142855</v>
       </c>
       <c r="I93" s="2">
-        <f>(D93-G93)</f>
+        <f t="shared" si="9"/>
         <v>1788491</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="10"/>
+        <v>68004</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -3317,7 +3659,7 @@
         <v>2192253</v>
       </c>
       <c r="E94" s="2">
-        <f>(D94-F94)</f>
+        <f t="shared" si="7"/>
         <v>1560614</v>
       </c>
       <c r="F94" s="2">
@@ -3327,12 +3669,16 @@
         <v>315820</v>
       </c>
       <c r="H94" s="2">
-        <f>AVERAGE(C88:C94)</f>
+        <f t="shared" si="8"/>
         <v>73729</v>
       </c>
       <c r="I94" s="2">
-        <f>(D94-G94)</f>
+        <f t="shared" si="9"/>
         <v>1876433</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="10"/>
+        <v>87942</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -3349,7 +3695,7 @@
         <v>2276313</v>
       </c>
       <c r="E95" s="2">
-        <f>(D95-F95)</f>
+        <f t="shared" si="7"/>
         <v>1640883</v>
       </c>
       <c r="F95" s="2">
@@ -3359,12 +3705,16 @@
         <v>317715</v>
       </c>
       <c r="H95" s="2">
-        <f>AVERAGE(C89:C95)</f>
+        <f t="shared" si="8"/>
         <v>74388.142857142855</v>
       </c>
       <c r="I95" s="2">
-        <f>(D95-G95)</f>
+        <f t="shared" si="9"/>
         <v>1958598</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="10"/>
+        <v>82165</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -3381,7 +3731,7 @@
         <v>2364496</v>
       </c>
       <c r="E96" s="2">
-        <f>(D96-F96)</f>
+        <f t="shared" si="7"/>
         <v>1723796</v>
       </c>
       <c r="F96" s="2">
@@ -3391,15 +3741,19 @@
         <v>320350</v>
       </c>
       <c r="H96" s="2">
-        <f>AVERAGE(C90:C96)</f>
+        <f t="shared" si="8"/>
         <v>75129.142857142855</v>
       </c>
       <c r="I96" s="2">
-        <f>(D96-G96)</f>
+        <f t="shared" si="9"/>
         <v>2044146</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <f t="shared" si="10"/>
+        <v>85548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3413,7 +3767,7 @@
         <v>2424063</v>
       </c>
       <c r="E97" s="2">
-        <f>(D97-F97)</f>
+        <f t="shared" si="7"/>
         <v>1781126</v>
       </c>
       <c r="F97" s="2">
@@ -3423,15 +3777,19 @@
         <v>321469</v>
       </c>
       <c r="H97" s="2">
-        <f>AVERAGE(C91:C97)</f>
+        <f t="shared" si="8"/>
         <v>72533</v>
       </c>
       <c r="I97" s="2">
-        <f>(D97-G97)</f>
+        <f t="shared" si="9"/>
         <v>2102594</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <f t="shared" si="10"/>
+        <v>58448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3445,7 +3803,7 @@
         <v>2493188</v>
       </c>
       <c r="E98" s="2">
-        <f>(D98-F98)</f>
+        <f t="shared" ref="E98:E111" si="11">(D98-F98)</f>
         <v>1849093</v>
       </c>
       <c r="F98" s="2">
@@ -3455,15 +3813,19 @@
         <v>322048</v>
       </c>
       <c r="H98" s="2">
-        <f>AVERAGE(C92:C98)</f>
+        <f t="shared" si="8"/>
         <v>73129.428571428565</v>
       </c>
       <c r="I98" s="2">
-        <f>(D98-G98)</f>
+        <f t="shared" si="9"/>
         <v>2171140</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <f t="shared" si="10"/>
+        <v>68546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3477,7 +3839,7 @@
         <v>2545640</v>
       </c>
       <c r="E99" s="2">
-        <f>(D99-F99)</f>
+        <f t="shared" si="11"/>
         <v>1901247</v>
       </c>
       <c r="F99" s="2">
@@ -3487,15 +3849,19 @@
         <v>322197</v>
       </c>
       <c r="H99" s="2">
-        <f>AVERAGE(C93:C99)</f>
+        <f t="shared" si="8"/>
         <v>73415</v>
       </c>
       <c r="I99" s="2">
-        <f>(D99-G99)</f>
+        <f t="shared" si="9"/>
         <v>2223443</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <f t="shared" si="10"/>
+        <v>52303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3509,7 +3875,7 @@
         <v>2621839</v>
       </c>
       <c r="E100" s="2">
-        <f>(D100-F100)</f>
+        <f t="shared" si="11"/>
         <v>1975544</v>
       </c>
       <c r="F100" s="2">
@@ -3519,15 +3885,19 @@
         <v>323148</v>
       </c>
       <c r="H100" s="2">
-        <f>AVERAGE(C94:C100)</f>
+        <f t="shared" si="8"/>
         <v>74208.428571428565</v>
       </c>
       <c r="I100" s="2">
-        <f>(D100-G100)</f>
+        <f t="shared" si="9"/>
         <v>2298691</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <f t="shared" si="10"/>
+        <v>75248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3541,7 +3911,7 @@
         <v>2726221</v>
       </c>
       <c r="E101" s="2">
-        <f>(D101-F101)</f>
+        <f t="shared" si="11"/>
         <v>2076655</v>
       </c>
       <c r="F101" s="2">
@@ -3551,15 +3921,19 @@
         <v>324783</v>
       </c>
       <c r="H101" s="2">
-        <f>AVERAGE(C95:C101)</f>
+        <f t="shared" si="8"/>
         <v>76281.142857142855</v>
       </c>
       <c r="I101" s="2">
-        <f>(D101-G101)</f>
+        <f t="shared" si="9"/>
         <v>2401438</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <f t="shared" si="10"/>
+        <v>102747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3573,7 +3947,7 @@
         <v>2834784</v>
       </c>
       <c r="E102" s="2">
-        <f>(D102-F102)</f>
+        <f t="shared" si="11"/>
         <v>2182065</v>
       </c>
       <c r="F102" s="2">
@@ -3583,15 +3957,19 @@
         <v>326360</v>
       </c>
       <c r="H102" s="2">
-        <f>AVERAGE(C96:C102)</f>
+        <f t="shared" si="8"/>
         <v>79781.571428571435</v>
       </c>
       <c r="I102" s="2">
-        <f>(D102-G102)</f>
+        <f t="shared" si="9"/>
         <v>2508424</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="2">
+        <f t="shared" si="10"/>
+        <v>106986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3605,7 +3983,7 @@
         <v>2940166</v>
       </c>
       <c r="E103" s="2">
-        <f>(D103-F103)</f>
+        <f t="shared" si="11"/>
         <v>2282447</v>
       </c>
       <c r="F103" s="2">
@@ -3615,15 +3993,19 @@
         <v>328598</v>
       </c>
       <c r="H103" s="2">
-        <f>AVERAGE(C97:C103)</f>
+        <f t="shared" si="8"/>
         <v>82238.571428571435</v>
       </c>
       <c r="I103" s="2">
-        <f>(D103-G103)</f>
+        <f t="shared" si="9"/>
         <v>2611568</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
+        <f t="shared" si="10"/>
+        <v>103144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3637,7 +4019,7 @@
         <v>3044949</v>
       </c>
       <c r="E104" s="2">
-        <f>(D104-F104)</f>
+        <f t="shared" si="11"/>
         <v>2382986</v>
       </c>
       <c r="F104" s="2">
@@ -3647,15 +4029,19 @@
         <v>330982</v>
       </c>
       <c r="H104" s="2">
-        <f>AVERAGE(C98:C104)</f>
+        <f t="shared" si="8"/>
         <v>88698</v>
       </c>
       <c r="I104" s="2">
-        <f>(D104-G104)</f>
+        <f t="shared" si="9"/>
         <v>2713967</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="2">
+        <f t="shared" si="10"/>
+        <v>102399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3669,7 +4055,7 @@
         <v>3139743</v>
       </c>
       <c r="E105" s="2">
-        <f>(D105-F105)</f>
+        <f t="shared" si="11"/>
         <v>2473444</v>
       </c>
       <c r="F105" s="2">
@@ -3679,15 +4065,19 @@
         <v>333150</v>
       </c>
       <c r="H105" s="2">
-        <f>AVERAGE(C99:C105)</f>
+        <f t="shared" ref="H105:H111" si="12">AVERAGE(C99:C105)</f>
         <v>92365</v>
       </c>
       <c r="I105" s="2">
-        <f>(D105-G105)</f>
+        <f t="shared" si="9"/>
         <v>2806593</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="2">
+        <f t="shared" si="10"/>
+        <v>92626</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3701,7 +4091,7 @@
         <v>3214465</v>
       </c>
       <c r="E106" s="2">
-        <f>(D106-F106)</f>
+        <f t="shared" si="11"/>
         <v>2547627</v>
       </c>
       <c r="F106" s="2">
@@ -3711,15 +4101,19 @@
         <v>333419</v>
       </c>
       <c r="H106" s="2">
-        <f>AVERAGE(C100:C106)</f>
+        <f t="shared" si="12"/>
         <v>95546.428571428565</v>
       </c>
       <c r="I106" s="2">
-        <f>(D106-G106)</f>
+        <f t="shared" ref="I106:I111" si="13">(D106-G106)</f>
         <v>2881046</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="2">
+        <f t="shared" si="10"/>
+        <v>74453</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3733,7 +4127,7 @@
         <v>3310157</v>
       </c>
       <c r="E107" s="2">
-        <f>(D107-F107)</f>
+        <f t="shared" si="11"/>
         <v>2639633</v>
       </c>
       <c r="F107" s="2">
@@ -3743,15 +4137,19 @@
         <v>335262</v>
       </c>
       <c r="H107" s="2">
-        <f>AVERAGE(C101:C107)</f>
+        <f t="shared" si="12"/>
         <v>98331.142857142855</v>
       </c>
       <c r="I107" s="2">
-        <f>(D107-G107)</f>
+        <f t="shared" si="13"/>
         <v>2974895</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="2">
+        <f t="shared" si="10"/>
+        <v>93849</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3765,7 +4163,7 @@
         <v>3422974</v>
       </c>
       <c r="E108" s="2">
-        <f>(D108-F108)</f>
+        <f t="shared" si="11"/>
         <v>2748563</v>
       </c>
       <c r="F108" s="2">
@@ -3775,15 +4173,19 @@
         <v>337206</v>
       </c>
       <c r="H108" s="2">
-        <f>AVERAGE(C102:C108)</f>
+        <f t="shared" si="12"/>
         <v>99536.142857142855</v>
       </c>
       <c r="I108" s="2">
-        <f>(D108-G108)</f>
+        <f t="shared" si="13"/>
         <v>3085768</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="2">
+        <f t="shared" ref="J108:J110" si="14">(I108-I107)</f>
+        <v>110873</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3797,7 +4199,7 @@
         <v>3528404</v>
       </c>
       <c r="E109" s="2">
-        <f>(D109-F109)</f>
+        <f t="shared" si="11"/>
         <v>2849423</v>
       </c>
       <c r="F109" s="2">
@@ -3807,15 +4209,19 @@
         <v>339491</v>
       </c>
       <c r="H109" s="2">
-        <f>AVERAGE(C103:C109)</f>
+        <f t="shared" si="12"/>
         <v>99088.571428571435</v>
       </c>
       <c r="I109" s="2">
-        <f>(D109-G109)</f>
+        <f t="shared" si="13"/>
         <v>3188913</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="2">
+        <f t="shared" si="14"/>
+        <v>103145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3829,7 +4235,7 @@
         <v>3644038</v>
       </c>
       <c r="E110" s="2">
-        <f>(D110-F110)</f>
+        <f t="shared" si="11"/>
         <v>2960172</v>
       </c>
       <c r="F110" s="2">
@@ -3839,15 +4245,19 @@
         <v>341933</v>
       </c>
       <c r="H110" s="2">
-        <f>AVERAGE(C104:C110)</f>
+        <f t="shared" si="12"/>
         <v>100553.14285714286</v>
       </c>
       <c r="I110" s="2">
-        <f>(D110-G110)</f>
+        <f t="shared" si="13"/>
         <v>3302105</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="2">
+        <f t="shared" si="14"/>
+        <v>113192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3861,7 +4271,7 @@
         <v>3751316</v>
       </c>
       <c r="E111" s="2">
-        <f>(D111-F111)</f>
+        <f t="shared" si="11"/>
         <v>3062828</v>
       </c>
       <c r="F111" s="2">
@@ -3871,22 +4281,53 @@
         <v>344244</v>
       </c>
       <c r="H111" s="2">
-        <f>AVERAGE(C105:C111)</f>
+        <f t="shared" si="12"/>
         <v>100909.57142857143</v>
       </c>
       <c r="I111" s="2">
-        <f>(D111-G111)</f>
+        <f t="shared" si="13"/>
         <v>3407072</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
+      <c r="J111" s="2">
+        <f>(I111-I110)</f>
+        <v>104967</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>44304</v>
+      </c>
+      <c r="C112" s="2">
+        <v>86565</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3837881</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" ref="E112" si="15">(D112-F112)</f>
+        <v>3147261</v>
+      </c>
+      <c r="F112" s="2">
+        <v>690620</v>
+      </c>
+      <c r="G112" s="2">
+        <v>345310</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" ref="H112" si="16">AVERAGE(C106:C112)</f>
+        <v>99734</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" ref="I112" si="17">(D112-G112)</f>
+        <v>3492571</v>
+      </c>
+      <c r="J112" s="2">
+        <f>(I112-I111)</f>
+        <v>85499</v>
+      </c>
     </row>
     <row r="114" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G114" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889CB22-2421-8C4C-8405-5B5510CA3EF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6F5B6-06EE-314B-8CBB-0F7FDE4A6913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4329,21 +4329,57 @@
         <v>85499</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>44305</v>
+      </c>
+      <c r="C113" s="2">
+        <v>66897</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3904778</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" ref="E113" si="18">(D113-F113)</f>
+        <v>3212768</v>
+      </c>
+      <c r="F113" s="2">
+        <v>692010</v>
+      </c>
+      <c r="G113" s="2">
+        <v>346005</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" ref="H113" si="19">AVERAGE(C107:C113)</f>
+        <v>98616.142857142855</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" ref="I113" si="20">(D113-G113)</f>
+        <v>3558773</v>
+      </c>
+      <c r="J113" s="2">
+        <f>(I113-I112)</f>
+        <v>66202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F118" s="2"/>
     </row>
   </sheetData>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6F5B6-06EE-314B-8CBB-0F7FDE4A6913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4119529-B3F4-274F-AF5F-44097E4EF2EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4366,7 +4366,40 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G114" s="2"/>
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C114" s="2">
+        <v>90409</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3995187</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" ref="E114" si="21">(D114-F114)</f>
+        <v>3299993</v>
+      </c>
+      <c r="F114" s="2">
+        <v>695194</v>
+      </c>
+      <c r="G114" s="2">
+        <v>347597</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" ref="H114" si="22">AVERAGE(C108:C114)</f>
+        <v>97861.428571428565</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" ref="I114" si="23">(D114-G114)</f>
+        <v>3647590</v>
+      </c>
+      <c r="J114" s="2">
+        <f>(I114-I113)</f>
+        <v>88817</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G115" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4119529-B3F4-274F-AF5F-44097E4EF2EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F5F53D-0236-7E45-BBA7-2CFCF9E3A908}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,7 +4402,40 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G115" s="2"/>
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>44307</v>
+      </c>
+      <c r="C115" s="2">
+        <v>136695</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4131882</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" ref="E115" si="24">(D115-F115)</f>
+        <v>3433091</v>
+      </c>
+      <c r="F115" s="2">
+        <v>698791</v>
+      </c>
+      <c r="G115" s="2">
+        <v>349396</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" ref="H115" si="25">AVERAGE(C109:C115)</f>
+        <v>101272.57142857143</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" ref="I115" si="26">(D115-G115)</f>
+        <v>3782486</v>
+      </c>
+      <c r="J115" s="2">
+        <f>(I115-I114)</f>
+        <v>134896</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F116" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F5F53D-0236-7E45-BBA7-2CFCF9E3A908}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F17D07B-7FDB-6A41-BAFD-C5BDA9584439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4438,8 +4438,40 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>44308</v>
+      </c>
+      <c r="C116" s="2">
+        <v>134920</v>
+      </c>
+      <c r="D116" s="2">
+        <v>4266802</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" ref="E116" si="27">(D116-F116)</f>
+        <v>3564095</v>
+      </c>
+      <c r="F116" s="2">
+        <v>702707</v>
+      </c>
+      <c r="G116" s="2">
+        <v>351354</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" ref="H116" si="28">AVERAGE(C110:C116)</f>
+        <v>105485.42857142857</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" ref="I116" si="29">(D116-G116)</f>
+        <v>3915448</v>
+      </c>
+      <c r="J116" s="2">
+        <f>(I116-I115)</f>
+        <v>132962</v>
+      </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F117" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F17D07B-7FDB-6A41-BAFD-C5BDA9584439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF491DD7-F5B7-304F-864B-539C7112E986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4289,7 +4289,7 @@
         <v>3407072</v>
       </c>
       <c r="J111" s="2">
-        <f>(I111-I110)</f>
+        <f t="shared" ref="J111:J117" si="15">(I111-I110)</f>
         <v>104967</v>
       </c>
     </row>
@@ -4307,7 +4307,7 @@
         <v>3837881</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" ref="E112" si="15">(D112-F112)</f>
+        <f t="shared" ref="E112" si="16">(D112-F112)</f>
         <v>3147261</v>
       </c>
       <c r="F112" s="2">
@@ -4317,15 +4317,15 @@
         <v>345310</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" ref="H112" si="16">AVERAGE(C106:C112)</f>
+        <f t="shared" ref="H112" si="17">AVERAGE(C106:C112)</f>
         <v>99734</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" ref="I112" si="17">(D112-G112)</f>
+        <f t="shared" ref="I112" si="18">(D112-G112)</f>
         <v>3492571</v>
       </c>
       <c r="J112" s="2">
-        <f>(I112-I111)</f>
+        <f t="shared" si="15"/>
         <v>85499</v>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
         <v>3904778</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" ref="E113" si="18">(D113-F113)</f>
+        <f t="shared" ref="E113" si="19">(D113-F113)</f>
         <v>3212768</v>
       </c>
       <c r="F113" s="2">
@@ -4353,15 +4353,15 @@
         <v>346005</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" ref="H113" si="19">AVERAGE(C107:C113)</f>
+        <f t="shared" ref="H113" si="20">AVERAGE(C107:C113)</f>
         <v>98616.142857142855</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" ref="I113" si="20">(D113-G113)</f>
+        <f t="shared" ref="I113" si="21">(D113-G113)</f>
         <v>3558773</v>
       </c>
       <c r="J113" s="2">
-        <f>(I113-I112)</f>
+        <f t="shared" si="15"/>
         <v>66202</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>3995187</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" ref="E114" si="21">(D114-F114)</f>
+        <f t="shared" ref="E114" si="22">(D114-F114)</f>
         <v>3299993</v>
       </c>
       <c r="F114" s="2">
@@ -4389,15 +4389,15 @@
         <v>347597</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" ref="H114" si="22">AVERAGE(C108:C114)</f>
+        <f t="shared" ref="H114" si="23">AVERAGE(C108:C114)</f>
         <v>97861.428571428565</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" ref="I114" si="23">(D114-G114)</f>
+        <f t="shared" ref="I114" si="24">(D114-G114)</f>
         <v>3647590</v>
       </c>
       <c r="J114" s="2">
-        <f>(I114-I113)</f>
+        <f t="shared" si="15"/>
         <v>88817</v>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
         <v>4131882</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" ref="E115" si="24">(D115-F115)</f>
+        <f t="shared" ref="E115" si="25">(D115-F115)</f>
         <v>3433091</v>
       </c>
       <c r="F115" s="2">
@@ -4425,15 +4425,15 @@
         <v>349396</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" ref="H115" si="25">AVERAGE(C109:C115)</f>
+        <f t="shared" ref="H115" si="26">AVERAGE(C109:C115)</f>
         <v>101272.57142857143</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" ref="I115" si="26">(D115-G115)</f>
+        <f t="shared" ref="I115" si="27">(D115-G115)</f>
         <v>3782486</v>
       </c>
       <c r="J115" s="2">
-        <f>(I115-I114)</f>
+        <f t="shared" si="15"/>
         <v>134896</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>4266802</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" ref="E116" si="27">(D116-F116)</f>
+        <f t="shared" ref="E116" si="28">(D116-F116)</f>
         <v>3564095</v>
       </c>
       <c r="F116" s="2">
@@ -4461,21 +4461,53 @@
         <v>351354</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" ref="H116" si="28">AVERAGE(C110:C116)</f>
+        <f t="shared" ref="H116" si="29">AVERAGE(C110:C116)</f>
         <v>105485.42857142857</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" ref="I116" si="29">(D116-G116)</f>
+        <f t="shared" ref="I116" si="30">(D116-G116)</f>
         <v>3915448</v>
       </c>
       <c r="J116" s="2">
-        <f>(I116-I115)</f>
+        <f t="shared" si="15"/>
         <v>132962</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44309</v>
+      </c>
+      <c r="C117" s="2">
+        <v>133872</v>
+      </c>
+      <c r="D117" s="2">
+        <v>4400674</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" ref="E117" si="31">(D117-F117)</f>
+        <v>3690258</v>
+      </c>
+      <c r="F117" s="2">
+        <v>710416</v>
+      </c>
+      <c r="G117" s="2">
+        <v>355208</v>
+      </c>
+      <c r="H117" s="2">
+        <f t="shared" ref="H117" si="32">AVERAGE(C111:C117)</f>
+        <v>108090.85714285714</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" ref="I117" si="33">(D117-G117)</f>
+        <v>4045466</v>
+      </c>
+      <c r="J117" s="2">
+        <f t="shared" si="15"/>
+        <v>130018</v>
+      </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F118" s="2"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF491DD7-F5B7-304F-864B-539C7112E986}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00925B-90D2-8242-BBEA-8FD8CD440997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4510,7 +4510,40 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F118" s="2"/>
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C118" s="2">
+        <v>126694</v>
+      </c>
+      <c r="D118" s="2">
+        <v>4527368</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" ref="E118" si="34">(D118-F118)</f>
+        <v>3809816</v>
+      </c>
+      <c r="F118" s="2">
+        <v>717552</v>
+      </c>
+      <c r="G118" s="2">
+        <v>358776</v>
+      </c>
+      <c r="H118" s="2">
+        <f t="shared" ref="H118" si="35">AVERAGE(C112:C118)</f>
+        <v>110864.57142857143</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" ref="I118" si="36">(D118-G118)</f>
+        <v>4168592</v>
+      </c>
+      <c r="J118" s="2">
+        <f t="shared" ref="J118" si="37">(I118-I117)</f>
+        <v>123126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00925B-90D2-8242-BBEA-8FD8CD440997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ADF513-4F06-1B44-B482-B0D317CADDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4545,6 +4545,42 @@
         <v>123126</v>
       </c>
     </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>44311</v>
+      </c>
+      <c r="C119" s="2">
+        <v>99535</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4626903</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" ref="E119" si="38">(D119-F119)</f>
+        <v>3906195</v>
+      </c>
+      <c r="F119" s="2">
+        <v>720708</v>
+      </c>
+      <c r="G119" s="2">
+        <v>360354</v>
+      </c>
+      <c r="H119" s="2">
+        <f t="shared" ref="H119" si="39">AVERAGE(C113:C119)</f>
+        <v>112717.42857142857</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" ref="I119" si="40">(D119-G119)</f>
+        <v>4266549</v>
+      </c>
+      <c r="J119" s="2">
+        <f t="shared" ref="J119" si="41">(I119-I118)</f>
+        <v>97957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ADF513-4F06-1B44-B482-B0D317CADDED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439F1B7-C552-3E4E-8839-5D01DBFFD5AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4581,6 +4581,78 @@
         <v>97957</v>
       </c>
     </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>44312</v>
+      </c>
+      <c r="C120" s="2">
+        <v>69308</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4696211</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" ref="E120" si="42">(D120-F120)</f>
+        <v>3973879</v>
+      </c>
+      <c r="F120" s="2">
+        <v>722332</v>
+      </c>
+      <c r="G120" s="2">
+        <v>361166</v>
+      </c>
+      <c r="H120" s="2">
+        <f t="shared" ref="H120" si="43">AVERAGE(C114:C120)</f>
+        <v>113061.85714285714</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" ref="I120" si="44">(D120-G120)</f>
+        <v>4335045</v>
+      </c>
+      <c r="J120" s="2">
+        <f t="shared" ref="J120" si="45">(I120-I119)</f>
+        <v>68496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>44313</v>
+      </c>
+      <c r="C121" s="2">
+        <v>94819</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4791030</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" ref="E121" si="46">(D121-F121)</f>
+        <v>4065904</v>
+      </c>
+      <c r="F121" s="2">
+        <v>725126</v>
+      </c>
+      <c r="G121" s="2">
+        <v>362563</v>
+      </c>
+      <c r="H121" s="2">
+        <f t="shared" ref="H121" si="47">AVERAGE(C115:C121)</f>
+        <v>113691.85714285714</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" ref="I121" si="48">(D121-G121)</f>
+        <v>4428467</v>
+      </c>
+      <c r="J121" s="2">
+        <f t="shared" ref="J121" si="49">(I121-I120)</f>
+        <v>93422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439F1B7-C552-3E4E-8839-5D01DBFFD5AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD5397-4F68-6247-A65C-8C470423C21C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4653,6 +4653,42 @@
         <v>93422</v>
       </c>
     </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>44314</v>
+      </c>
+      <c r="C122" s="2">
+        <v>116173</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4907203</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" ref="E122" si="50">(D122-F122)</f>
+        <v>4176871</v>
+      </c>
+      <c r="F122" s="2">
+        <v>730332</v>
+      </c>
+      <c r="G122" s="2">
+        <v>365166</v>
+      </c>
+      <c r="H122" s="2">
+        <f t="shared" ref="H122" si="51">AVERAGE(C116:C122)</f>
+        <v>110760.14285714286</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" ref="I122" si="52">(D122-G122)</f>
+        <v>4542037</v>
+      </c>
+      <c r="J122" s="2">
+        <f t="shared" ref="J122" si="53">(I122-I121)</f>
+        <v>113570</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD5397-4F68-6247-A65C-8C470423C21C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB5C80-890A-184B-9639-EA4DF28D58AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4689,6 +4689,42 @@
         <v>113570</v>
       </c>
     </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44315</v>
+      </c>
+      <c r="C123" s="2">
+        <v>120567</v>
+      </c>
+      <c r="D123" s="2">
+        <v>5027770</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" ref="E123" si="54">(D123-F123)</f>
+        <v>4290964</v>
+      </c>
+      <c r="F123" s="2">
+        <v>736806</v>
+      </c>
+      <c r="G123" s="2">
+        <v>368403</v>
+      </c>
+      <c r="H123" s="2">
+        <f t="shared" ref="H123" si="55">AVERAGE(C117:C123)</f>
+        <v>108709.71428571429</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" ref="I123" si="56">(D123-G123)</f>
+        <v>4659367</v>
+      </c>
+      <c r="J123" s="2">
+        <f t="shared" ref="J123" si="57">(I123-I122)</f>
+        <v>117330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB5C80-890A-184B-9639-EA4DF28D58AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF72D4-EFD4-E84D-8E8B-064F28F5A68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,6 +4725,42 @@
         <v>117330</v>
       </c>
     </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>44316</v>
+      </c>
+      <c r="C124" s="2">
+        <v>112214</v>
+      </c>
+      <c r="D124" s="2">
+        <v>5139984</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" ref="E124" si="58">(D124-F124)</f>
+        <v>4397764</v>
+      </c>
+      <c r="F124" s="2">
+        <v>742220</v>
+      </c>
+      <c r="G124" s="2">
+        <v>371110</v>
+      </c>
+      <c r="H124" s="2">
+        <f t="shared" ref="H124" si="59">AVERAGE(C118:C124)</f>
+        <v>105615.71428571429</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" ref="I124" si="60">(D124-G124)</f>
+        <v>4768874</v>
+      </c>
+      <c r="J124" s="2">
+        <f t="shared" ref="J124" si="61">(I124-I123)</f>
+        <v>109507</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ontario_daily_doses.xlsx
+++ b/ontario_daily_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BF72D4-EFD4-E84D-8E8B-064F28F5A68F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AAE85-E008-D240-81B0-5DD7BF11B891}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{304B984E-8241-9047-A993-E5532E698962}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F301C560-33BB-4046-A61E-4964DEDA98E2}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4761,6 +4761,42 @@
         <v>109507</v>
       </c>
     </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C125" s="2">
+        <v>107700</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5247684</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" ref="E125" si="62">(D125-F125)</f>
+        <v>4500566</v>
+      </c>
+      <c r="F125" s="2">
+        <v>747118</v>
+      </c>
+      <c r="G125" s="2">
+        <v>373559</v>
+      </c>
+      <c r="H125" s="2">
+        <f t="shared" ref="H125" si="63">AVERAGE(C119:C125)</f>
+        <v>102902.28571428571</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" ref="I125" si="64">(D125-G125)</f>
+        <v>4874125</v>
+      </c>
+      <c r="J125" s="2">
+        <f t="shared" ref="J125" si="65">(I125-I124)</f>
+        <v>105251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
